--- a/Heuristic2/gtelarge_cross_encode/final_rank.xlsx
+++ b/Heuristic2/gtelarge_cross_encode/final_rank.xlsx
@@ -61,448 +61,448 @@
     <t>Bill &amp; Melinda Gates Foundation</t>
   </si>
   <si>
+    <t>Y Combinator</t>
+  </si>
+  <si>
+    <t>Reach Capital</t>
+  </si>
+  <si>
+    <t>Google for Education</t>
+  </si>
+  <si>
     <t>U.S. Dept. of Education (EIR Program)</t>
   </si>
   <si>
-    <t>Reach Capital</t>
+    <t>National Science Foundation (NSF)</t>
   </si>
   <si>
     <t>500 Global Flagship VC (non-accelerator checks)</t>
   </si>
   <si>
+    <t>IES SBIR (ED/IES)</t>
+  </si>
+  <si>
+    <t>500 Global (seed/accelerator)</t>
+  </si>
+  <si>
+    <t>Buffalo Sabres Foundation</t>
+  </si>
+  <si>
+    <t>TGR Foundation (Tiger Woods)</t>
+  </si>
+  <si>
+    <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
+  </si>
+  <si>
+    <t>Penn State University - Outreach &amp; Engagement</t>
+  </si>
+  <si>
     <t>Chan Zuckerberg Initiative (CZI)</t>
   </si>
   <si>
-    <t>Google for Education</t>
-  </si>
-  <si>
-    <t>National Science Foundation (NSF)</t>
-  </si>
-  <si>
-    <t>IES SBIR (ED/IES)</t>
-  </si>
-  <si>
-    <t>Y Combinator</t>
+    <t>Duke University - Duke-Durham Neighborhood Partnership</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets Foundation</t>
   </si>
   <si>
     <t>NSF SBIR (“America’s Seed Fund”)</t>
   </si>
   <si>
-    <t>500 Global (seed/accelerator)</t>
-  </si>
-  <si>
-    <t>Berkeley SkyDeck Fund (UC Berkeley)</t>
+    <t>University of Wisconsin-Madison - Community Relations</t>
+  </si>
+  <si>
+    <t>Denver Nuggets Community Relations</t>
+  </si>
+  <si>
+    <t>Indiegogo</t>
+  </si>
+  <si>
+    <t>Carolina Hurricanes Foundation</t>
+  </si>
+  <si>
+    <t>Kickstarter</t>
+  </si>
+  <si>
+    <t>Calgary Flames Foundation</t>
+  </si>
+  <si>
+    <t>Washington Commanders Foundation</t>
+  </si>
+  <si>
+    <t>MIT Solve (Global Learning &amp; education tracks)</t>
+  </si>
+  <si>
+    <t>Colorado Avalanche Community Fund</t>
+  </si>
+  <si>
+    <t>Carolina Panthers Charities</t>
+  </si>
+  <si>
+    <t>Microsoft Philanthropies</t>
+  </si>
+  <si>
+    <t>Buffalo Bills Foundation</t>
+  </si>
+  <si>
+    <t>Colorado Rapids Community Relations</t>
+  </si>
+  <si>
+    <t>LA Galaxy Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers Youth Foundation</t>
+  </si>
+  <si>
+    <t>The Ohio State University - Office of Outreach</t>
+  </si>
+  <si>
+    <t>Boston Celtics Shamrock Foundation</t>
+  </si>
+  <si>
+    <t>New York Islanders Children's Foundation</t>
+  </si>
+  <si>
+    <t>New York Jets Foundation</t>
+  </si>
+  <si>
+    <t>LA Kings Care Foundation</t>
+  </si>
+  <si>
+    <t>Vegas Golden Knights Foundation</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks - Spirit of 12</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings Foundation</t>
+  </si>
+  <si>
+    <t>Portland Timbers Community Fund</t>
+  </si>
+  <si>
+    <t>New York Rangers - Garden of Dreams Foundation</t>
+  </si>
+  <si>
+    <t>VELA Education Fund</t>
+  </si>
+  <si>
+    <t>D.C. United Foundation</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies Foundation</t>
+  </si>
+  <si>
+    <t>Tennessee Titans Foundation</t>
+  </si>
+  <si>
+    <t>Pittsburgh Steelers Charities</t>
+  </si>
+  <si>
+    <t>Pittsburgh Penguins Foundation</t>
+  </si>
+  <si>
+    <t>Baylor University - Office of External Affairs</t>
+  </si>
+  <si>
+    <t>Ottawa Senators Foundation</t>
+  </si>
+  <si>
+    <t>New England Patriots Foundation</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves FastBreak Foundation</t>
+  </si>
+  <si>
+    <t>Boston Bruins Foundation</t>
+  </si>
+  <si>
+    <t>Golden State Warriors Community Foundation</t>
+  </si>
+  <si>
+    <t>University of Florida Foundation</t>
+  </si>
+  <si>
+    <t>FC Dallas Foundation</t>
   </si>
   <si>
     <t>New York City FC - City in the Community Foundation</t>
   </si>
   <si>
-    <t>University of Wisconsin-Madison - Community Relations</t>
+    <t>Atlanta Hawks Foundation</t>
+  </si>
+  <si>
+    <t>New Jersey Devils Youth Foundation</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs Foundation</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers - Sixers Youth Foundation</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers Community Foundation (EOCF)</t>
+  </si>
+  <si>
+    <t>Houston Dynamo Charities</t>
+  </si>
+  <si>
+    <t>National Hockey League (NHL) Foundation U.S.</t>
+  </si>
+  <si>
+    <t>TCU (Texas Christian University) - Community Engagement</t>
+  </si>
+  <si>
+    <t>Real Salt Lake Foundation</t>
+  </si>
+  <si>
+    <t>New Orleans Saints - Gulf Coast Renewal Fund</t>
+  </si>
+  <si>
+    <t>New York Yankees Foundation</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys Foundation</t>
+  </si>
+  <si>
+    <t>Nashville Predators Foundation</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers Foundation</t>
+  </si>
+  <si>
+    <t>NFL Foundation</t>
+  </si>
+  <si>
+    <t>San Jose Sharks Foundation</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs - Spurs Give</t>
+  </si>
+  <si>
+    <t>Indiana Pacers Foundation</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers Community Foundation</t>
   </si>
   <si>
     <t>Austin FC - 4ATX Foundation</t>
   </si>
   <si>
-    <t>Penn State University - Outreach &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Buffalo Sabres Foundation</t>
+    <t>Baltimore Ravens Foundation</t>
+  </si>
+  <si>
+    <t>Toronto FC - MLSE Foundation</t>
+  </si>
+  <si>
+    <t>Dallas Stars Foundation</t>
+  </si>
+  <si>
+    <t>Miami Dolphins Foundation</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks Foundation</t>
+  </si>
+  <si>
+    <t>DonorsChoose (technology classroom projects)</t>
+  </si>
+  <si>
+    <t>New York Knicks Garden of Dreams Foundation</t>
+  </si>
+  <si>
+    <t>New York Giants Foundation</t>
+  </si>
+  <si>
+    <t>JJ Watt Foundation</t>
+  </si>
+  <si>
+    <t>Sacramento Republic FC</t>
+  </si>
+  <si>
+    <t>Los Angeles FC (LAFC) Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams Foundation</t>
+  </si>
+  <si>
+    <t>LA Clippers Foundation</t>
+  </si>
+  <si>
+    <t>NBA Foundation</t>
+  </si>
+  <si>
+    <t>Chicago Bears Charities</t>
+  </si>
+  <si>
+    <t>Chicago Cubs Charities</t>
+  </si>
+  <si>
+    <t>Houston Rockets - Clutch City Foundation</t>
   </si>
   <si>
     <t>Chicago Bulls Charities</t>
   </si>
   <si>
-    <t>TGR Foundation (Tiger Woods)</t>
+    <t>Chicago Blackhawks Foundation</t>
+  </si>
+  <si>
+    <t>Toronto Maple Leafs - MLSE Foundation</t>
   </si>
   <si>
     <t>FC Cincinnati Foundation</t>
   </si>
   <si>
-    <t>Brooklyn Nets Foundation</t>
-  </si>
-  <si>
-    <t>Toronto FC - MLSE Foundation</t>
-  </si>
-  <si>
-    <t>Kansas City Chiefs Foundation</t>
-  </si>
-  <si>
-    <t>New York Rangers - Garden of Dreams Foundation</t>
-  </si>
-  <si>
-    <t>NBA Foundation</t>
-  </si>
-  <si>
-    <t>FC Dallas Foundation</t>
-  </si>
-  <si>
-    <t>LA Kings Care Foundation</t>
-  </si>
-  <si>
-    <t>Colorado Rapids Community Relations</t>
-  </si>
-  <si>
-    <t>New England Patriots Foundation</t>
-  </si>
-  <si>
-    <t>Calgary Flames Foundation</t>
-  </si>
-  <si>
-    <t>Washington Commanders Foundation</t>
-  </si>
-  <si>
-    <t>San Jose Sharks Foundation</t>
+    <t>Inter Miami CF Foundation</t>
+  </si>
+  <si>
+    <t>Detroit Lions Charities</t>
+  </si>
+  <si>
+    <t>Nike Community Impact Fund</t>
+  </si>
+  <si>
+    <t>Detroit Pistons Foundation</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons Youth Foundation</t>
+  </si>
+  <si>
+    <t>Montreal Canadiens Children's Foundation</t>
+  </si>
+  <si>
+    <t>Sporting Kansas City - The Victory Project</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers Impact Fund</t>
   </si>
   <si>
     <t>Charlotte Hornets Foundation</t>
   </si>
   <si>
-    <t>Chicago Blackhawks Foundation</t>
-  </si>
-  <si>
-    <t>Golden State Warriors Community Foundation</t>
-  </si>
-  <si>
-    <t>Ottawa Senators Foundation</t>
-  </si>
-  <si>
-    <t>Boston Celtics Shamrock Foundation</t>
+    <t>Indianapolis Colts Foundation</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks Foundation</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals - Community Relations</t>
+  </si>
+  <si>
+    <t>Phoenix Suns Charities</t>
+  </si>
+  <si>
+    <t>Miami HEAT Charitable Fund</t>
+  </si>
+  <si>
+    <t>Utah Jazz Foundation</t>
+  </si>
+  <si>
+    <t>Nashville SC Community Fund</t>
+  </si>
+  <si>
+    <t>Toronto Raptors - MLSE Foundation</t>
+  </si>
+  <si>
+    <t>Indy Eleven Foundation</t>
+  </si>
+  <si>
+    <t>Orlando Magic Youth Foundation (OMYF)</t>
   </si>
   <si>
     <t>Chicago Fire FC Foundation</t>
   </si>
   <si>
+    <t>Denver Broncos Foundation</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals Charities</t>
+  </si>
+  <si>
+    <t>Detroit Red Wings Foundation</t>
+  </si>
+  <si>
+    <t>Vancouver Canucks for Kids Fund</t>
+  </si>
+  <si>
+    <t>Anaheim Ducks Foundation</t>
+  </si>
+  <si>
     <t>Eat. Learn. Play. Foundation (Stephen &amp; Ayesha Curry)</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves FastBreak Foundation</t>
-  </si>
-  <si>
-    <t>New York Knicks Garden of Dreams Foundation</t>
-  </si>
-  <si>
-    <t>D.C. United Foundation</t>
-  </si>
-  <si>
-    <t>LA Galaxy Foundation</t>
-  </si>
-  <si>
-    <t>Colorado Avalanche Community Fund</t>
+    <t>Cleveland Browns Foundation</t>
+  </si>
+  <si>
+    <t>University of Southern California (USC) Good Neighbors</t>
+  </si>
+  <si>
+    <t>St. Louis Blues - Blues for Kids Foundation</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders Foundation</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rowdies</t>
+  </si>
+  <si>
+    <t>Tampa Bay Lightning Community Heroes</t>
+  </si>
+  <si>
+    <t>Tampa Bay Buccaneers Foundation</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers Foundation</t>
+  </si>
+  <si>
+    <t>Columbus Blue Jackets Foundation</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Philadelphia 76ers - Sixers Youth Foundation</t>
-  </si>
-  <si>
-    <t>Chicago Bears Charities</t>
-  </si>
-  <si>
-    <t>Indiana Pacers Foundation</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies Foundation</t>
-  </si>
-  <si>
-    <t>Microsoft Philanthropies</t>
-  </si>
-  <si>
-    <t>Utah Jazz Foundation</t>
-  </si>
-  <si>
-    <t>Houston Dynamo Charities</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings Foundation</t>
-  </si>
-  <si>
-    <t>Denver Nuggets Community Relations</t>
-  </si>
-  <si>
-    <t>Carolina Hurricanes Foundation</t>
-  </si>
-  <si>
-    <t>New Jersey Devils Youth Foundation</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs - Spurs Give</t>
-  </si>
-  <si>
-    <t>Los Angeles FC (LAFC) Foundation</t>
-  </si>
-  <si>
-    <t>Detroit Pistons Foundation</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers Youth Foundation</t>
-  </si>
-  <si>
-    <t>Chicago Cubs Charities</t>
-  </si>
-  <si>
-    <t>Inter Miami CF Foundation</t>
-  </si>
-  <si>
-    <t>Carolina Panthers Charities</t>
-  </si>
-  <si>
-    <t>Boston Bruins Foundation</t>
-  </si>
-  <si>
-    <t>National Hockey League (NHL) Foundation U.S.</t>
-  </si>
-  <si>
-    <t>University of Florida Foundation</t>
-  </si>
-  <si>
-    <t>Buffalo Bills Foundation</t>
-  </si>
-  <si>
-    <t>Houston Rockets - Clutch City Foundation</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers Community Foundation</t>
-  </si>
-  <si>
-    <t>MIT Solve (Global Learning &amp; education tracks)</t>
-  </si>
-  <si>
-    <t>LA Clippers Foundation</t>
-  </si>
-  <si>
-    <t>Portland Timbers Community Fund</t>
-  </si>
-  <si>
-    <t>Columbus Blue Jackets Foundation</t>
-  </si>
-  <si>
-    <t>New York Yankees Foundation</t>
-  </si>
-  <si>
-    <t>New York Islanders Children's Foundation</t>
-  </si>
-  <si>
-    <t>New York Jets Foundation</t>
+    <t>Florida Panthers Foundation</t>
+  </si>
+  <si>
+    <t>Seattle Sounders FC RAVE Foundation</t>
+  </si>
+  <si>
+    <t>Detroit City FC</t>
+  </si>
+  <si>
+    <t>Boston Red Sox Foundation</t>
+  </si>
+  <si>
+    <t>Seattle Kraken - One Roof Foundation</t>
+  </si>
+  <si>
+    <t>MLB Players Trust</t>
+  </si>
+  <si>
+    <t>Washington Wizards - Monumental Sports &amp; Entertainment Foundation</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers Foundation</t>
+  </si>
+  <si>
+    <t>Minnesota Wild Foundation</t>
+  </si>
+  <si>
+    <t>Laureus Sport for Good USA</t>
+  </si>
+  <si>
+    <t>Green Bay Packers Foundation</t>
   </si>
   <si>
     <t>Houston Texans Foundation</t>
   </si>
   <si>
-    <t>Duke University - Duke-Durham Neighborhood Partnership</t>
-  </si>
-  <si>
-    <t>Seattle Seahawks - Spirit of 12</t>
-  </si>
-  <si>
-    <t>Orlando Magic Youth Foundation (OMYF)</t>
-  </si>
-  <si>
-    <t>San Francisco 49ers Foundation</t>
-  </si>
-  <si>
-    <t>Tennessee Titans Foundation</t>
-  </si>
-  <si>
-    <t>Pittsburgh Steelers Charities</t>
-  </si>
-  <si>
-    <t>Vegas Golden Knights Foundation</t>
-  </si>
-  <si>
-    <t>Indiegogo</t>
-  </si>
-  <si>
-    <t>Kickstarter</t>
-  </si>
-  <si>
-    <t>Baylor University - Office of External Affairs</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks Foundation</t>
-  </si>
-  <si>
-    <t>Edmonton Oilers Community Foundation (EOCF)</t>
-  </si>
-  <si>
-    <t>Toronto Maple Leafs - MLSE Foundation</t>
-  </si>
-  <si>
-    <t>New Orleans Saints - Gulf Coast Renewal Fund</t>
-  </si>
-  <si>
-    <t>Dallas Cowboys Foundation</t>
-  </si>
-  <si>
-    <t>Nashville Predators Foundation</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks Foundation</t>
-  </si>
-  <si>
-    <t>Tampa Bay Lightning Community Heroes</t>
-  </si>
-  <si>
-    <t>Baltimore Ravens Foundation</t>
-  </si>
-  <si>
-    <t>Washington Wizards - Monumental Sports &amp; Entertainment Foundation</t>
-  </si>
-  <si>
-    <t>TCU (Texas Christian University) - Community Engagement</t>
-  </si>
-  <si>
-    <t>Toronto Raptors - MLSE Foundation</t>
-  </si>
-  <si>
-    <t>Dallas Stars Foundation</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers Foundation</t>
-  </si>
-  <si>
-    <t>New York Giants Foundation</t>
-  </si>
-  <si>
-    <t>Montreal Canadiens Children's Foundation</t>
-  </si>
-  <si>
-    <t>Pittsburgh Penguins Foundation</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams Foundation</t>
-  </si>
-  <si>
-    <t>St. Louis Blues - Blues for Kids Foundation</t>
-  </si>
-  <si>
-    <t>The Ohio State University - Office of Outreach</t>
-  </si>
-  <si>
-    <t>Vancouver Canucks for Kids Fund</t>
-  </si>
-  <si>
-    <t>University of Southern California (USC) Good Neighbors</t>
-  </si>
-  <si>
-    <t>VELA Education Fund</t>
-  </si>
-  <si>
-    <t>Nike Community Impact Fund</t>
-  </si>
-  <si>
-    <t>Sporting Kansas City - The Victory Project</t>
-  </si>
-  <si>
-    <t>Detroit Lions Charities</t>
-  </si>
-  <si>
-    <t>Atlanta Falcons Youth Foundation</t>
-  </si>
-  <si>
-    <t>Phoenix Suns Charities</t>
-  </si>
-  <si>
-    <t>Los Angeles Chargers Impact Fund</t>
-  </si>
-  <si>
-    <t>Indianapolis Colts Foundation</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks Foundation</t>
-  </si>
-  <si>
-    <t>Seattle Kraken - One Roof Foundation</t>
-  </si>
-  <si>
-    <t>JJ Watt Foundation</t>
-  </si>
-  <si>
-    <t>Real Salt Lake Foundation</t>
-  </si>
-  <si>
-    <t>Cincinnati Bengals - Community Relations</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rowdies</t>
-  </si>
-  <si>
-    <t>Arizona Cardinals Charities</t>
-  </si>
-  <si>
-    <t>Miami Dolphins Foundation</t>
-  </si>
-  <si>
-    <t>Cleveland Browns Foundation</t>
-  </si>
-  <si>
-    <t>Detroit City FC</t>
-  </si>
-  <si>
-    <t>Anaheim Ducks Foundation</t>
-  </si>
-  <si>
-    <t>Las Vegas Raiders Foundation</t>
-  </si>
-  <si>
-    <t>Sacramento Republic FC</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers Foundation</t>
-  </si>
-  <si>
-    <t>NFL Foundation</t>
-  </si>
-  <si>
-    <t>Miami HEAT Charitable Fund</t>
-  </si>
-  <si>
-    <t>Nashville SC Community Fund</t>
-  </si>
-  <si>
-    <t>Denver Broncos Foundation</t>
-  </si>
-  <si>
-    <t>Florida Panthers Foundation</t>
-  </si>
-  <si>
-    <t>Laureus Sport for Good USA</t>
-  </si>
-  <si>
-    <t>Indy Eleven Foundation</t>
-  </si>
-  <si>
-    <t>Detroit Red Wings Foundation</t>
-  </si>
-  <si>
     <t>Philadelphia Eagles Foundation</t>
   </si>
   <si>
-    <t>Seattle Sounders FC RAVE Foundation</t>
-  </si>
-  <si>
-    <t>Minnesota Wild Foundation</t>
-  </si>
-  <si>
-    <t>Tampa Bay Buccaneers Foundation</t>
+    <t>Oakland Roots SC</t>
   </si>
   <si>
     <t>Jacksonville Jaguars Foundation</t>
-  </si>
-  <si>
-    <t>Oakland Roots SC</t>
-  </si>
-  <si>
-    <t>MLB Players Trust</t>
-  </si>
-  <si>
-    <t>Boston Red Sox Foundation</t>
-  </si>
-  <si>
-    <t>DonorsChoose (technology classroom projects)</t>
-  </si>
-  <si>
-    <t>Green Bay Packers Foundation</t>
   </si>
   <si>
     <t>Florida State University Research Foundation</t>
@@ -915,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1467295.698995216</v>
+        <v>4.14051073300304</v>
       </c>
       <c r="C2">
         <v>0.2667810361809483</v>
@@ -956,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>809772.0751010308</v>
+        <v>2.876273470698403</v>
       </c>
       <c r="C3">
         <v>0.1883095622723806</v>
@@ -997,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>467499.2041350788</v>
+        <v>1.374070877603247</v>
       </c>
       <c r="C4">
-        <v>0.07791653402251314</v>
+        <v>0.1047121336805251</v>
       </c>
       <c r="D4">
-        <v>0.1113093343178759</v>
+        <v>0.1495887624007501</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1015,22 +1015,22 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.1380820721387863</v>
+        <v>0.2029805332422256</v>
       </c>
       <c r="I4">
-        <v>0.8061099648475647</v>
+        <v>0.7369611263275146</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="L4">
-        <v>10000000</v>
+        <v>500000</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1038,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>399022.7423087057</v>
+        <v>1.219579351672701</v>
       </c>
       <c r="C5">
         <v>0.07901440441756548</v>
@@ -1079,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>214035.682495013</v>
+        <v>1.217293363228242</v>
       </c>
       <c r="C6">
-        <v>0.07783115727091383</v>
+        <v>0.08671011368929164</v>
       </c>
       <c r="D6">
-        <v>0.1111873675298769</v>
+        <v>0.1238715909847024</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.1408062428236008</v>
+        <v>0.1526195406913757</v>
       </c>
       <c r="I6">
-        <v>0.7896479964256287</v>
+        <v>0.8116365075111389</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>500000</v>
       </c>
       <c r="L6">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1120,37 +1120,37 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>196595.4072442855</v>
+        <v>1.216064399058369</v>
       </c>
       <c r="C7">
-        <v>0.03730463135565189</v>
+        <v>0.07791653402251314</v>
       </c>
       <c r="D7">
-        <v>0.05329233050807414</v>
+        <v>0.1113093343178759</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2851456999778748</v>
+        <v>0.1380820721387863</v>
       </c>
       <c r="I7">
-        <v>0.747580349445343</v>
+        <v>0.8061099648475647</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>40000</v>
+        <v>2000000</v>
       </c>
       <c r="L7">
-        <v>10500000</v>
+        <v>10000000</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1161,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>108387.6421116146</v>
+        <v>1.199881751658231</v>
       </c>
       <c r="C8">
-        <v>0.08671011368929164</v>
+        <v>0.08685033099382949</v>
       </c>
       <c r="D8">
-        <v>0.1238715909847024</v>
+        <v>0.1240719014197564</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.1526195406913757</v>
+        <v>0.1568501740694046</v>
       </c>
       <c r="I8">
-        <v>0.8116365075111389</v>
+        <v>0.7910217642784119</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1191,10 +1191,10 @@
         <v>500000</v>
       </c>
       <c r="L8">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1202,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>86850.3309938295</v>
+        <v>1.154011272969369</v>
       </c>
       <c r="C9">
-        <v>0.08685033099382949</v>
+        <v>0.07783115727091383</v>
       </c>
       <c r="D9">
-        <v>0.1240719014197564</v>
+        <v>0.1111873675298769</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.1568501740694046</v>
+        <v>0.1408062428236008</v>
       </c>
       <c r="I9">
-        <v>0.7910217642784119</v>
+        <v>0.7896479964256287</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1232,10 +1232,10 @@
         <v>500000</v>
       </c>
       <c r="L9">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>53098.89103065467</v>
+        <v>1.133810724984049</v>
       </c>
       <c r="C10">
         <v>0.08495822564904748</v>
@@ -1284,13 +1284,13 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>52356.06684026255</v>
+        <v>0.9276226499820934</v>
       </c>
       <c r="C11">
-        <v>0.1047121336805251</v>
+        <v>0.07783115727091383</v>
       </c>
       <c r="D11">
-        <v>0.1495887624007501</v>
+        <v>0.1111873675298769</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.2029805332422256</v>
+        <v>0.1408062428236008</v>
       </c>
       <c r="I11">
-        <v>0.7369611263275146</v>
+        <v>0.7896479964256287</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="L11">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1325,40 +1325,40 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>17996.35916471657</v>
+        <v>0.8265541797063872</v>
       </c>
       <c r="C12">
-        <v>0.02800989753263279</v>
+        <v>0.07572570809643198</v>
       </c>
       <c r="D12">
-        <v>0.04001413933233255</v>
+        <v>0.1081795829949028</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>0.06159616261720657</v>
+        <v>0.2404740750789642</v>
       </c>
       <c r="I12">
-        <v>0.6496206521987915</v>
+        <v>0.8997192978858948</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>285000</v>
+        <v>10000</v>
       </c>
       <c r="L12">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1366,16 +1366,16 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>11674.67359063707</v>
+        <v>0.8163282077861753</v>
       </c>
       <c r="C13">
-        <v>0.07783115727091383</v>
+        <v>0.07510895119400818</v>
       </c>
       <c r="D13">
-        <v>0.1111873675298769</v>
+        <v>0.107298501705726</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1384,19 +1384,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.1408062428236008</v>
+        <v>0.1499907672405243</v>
       </c>
       <c r="I13">
-        <v>0.7896479964256287</v>
+        <v>0.7153673768043518</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="L13">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>10548.09755103377</v>
+        <v>0.643754488602065</v>
       </c>
       <c r="C14">
         <v>0.05274048775516884</v>
@@ -1448,37 +1448,37 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>8100.976637074602</v>
+        <v>0.5971704540532488</v>
       </c>
       <c r="C15">
-        <v>0.008060673270720997</v>
+        <v>0.05186952153712836</v>
       </c>
       <c r="D15">
-        <v>0.01151524752960142</v>
+        <v>0.07409931648161194</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H15">
-        <v>0.1328378170728683</v>
+        <v>0.3678862452507019</v>
       </c>
       <c r="I15">
-        <v>0.8668651580810547</v>
+        <v>0.8056764006614685</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="L15">
-        <v>2000000</v>
+        <v>150000</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1489,37 +1489,37 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>6984.695286634576</v>
+        <v>0.5773839654106011</v>
       </c>
       <c r="C16">
-        <v>0.02686421264090222</v>
+        <v>0.03730463135565189</v>
       </c>
       <c r="D16">
-        <v>0.08954737546967406</v>
+        <v>0.05329233050807414</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H16">
-        <v>0.2243892103433609</v>
+        <v>0.2851456999778748</v>
       </c>
       <c r="I16">
-        <v>0.7981433272361755</v>
+        <v>0.747580349445343</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L16">
-        <v>500000</v>
+        <v>10500000</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1530,37 +1530,37 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>6303.421245454913</v>
+        <v>0.4156481241791029</v>
       </c>
       <c r="C17">
-        <v>0.006003258329004679</v>
+        <v>0.04879992220787201</v>
       </c>
       <c r="D17">
-        <v>0.02001086109668226</v>
+        <v>0.1626664073595734</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H17">
-        <v>0.09454035013914108</v>
+        <v>0.3853446543216705</v>
       </c>
       <c r="I17">
-        <v>0.8466590642929077</v>
+        <v>0.8442645072937012</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="L17">
-        <v>2000000</v>
+        <v>9000</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>5186.952153712836</v>
+        <v>0.3923525796427634</v>
       </c>
       <c r="C18">
-        <v>0.05186952153712836</v>
+        <v>0.03402655698557674</v>
       </c>
       <c r="D18">
-        <v>0.07409931648161194</v>
+        <v>0.0486093671222525</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1589,19 +1589,19 @@
         <v>0.25</v>
       </c>
       <c r="H18">
-        <v>0.3678862452507019</v>
+        <v>0.2228480279445648</v>
       </c>
       <c r="I18">
-        <v>0.8056764006614685</v>
+        <v>0.8725115060806274</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>50000</v>
+        <v>3600</v>
       </c>
       <c r="L18">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1612,40 +1612,40 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>4164.913945303759</v>
+        <v>0.3745798231885246</v>
       </c>
       <c r="C19">
-        <v>0.07572570809643198</v>
+        <v>0.02800989753263279</v>
       </c>
       <c r="D19">
-        <v>0.1081795829949028</v>
+        <v>0.04001413933233255</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.2404740750789642</v>
+        <v>0.06159616261720657</v>
       </c>
       <c r="I19">
-        <v>0.8997192978858948</v>
+        <v>0.6496206521987915</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>10000</v>
+        <v>285000</v>
       </c>
       <c r="L19">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1653,37 +1653,37 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>4064.085404492941</v>
+        <v>0.3349548437735471</v>
       </c>
       <c r="C20">
-        <v>0.004767255606443332</v>
+        <v>0.02686421264090222</v>
       </c>
       <c r="D20">
-        <v>0.01589085202147777</v>
+        <v>0.08954737546967406</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H20">
-        <v>0.07940725982189178</v>
+        <v>0.2243892103433609</v>
       </c>
       <c r="I20">
-        <v>0.8004735112190247</v>
+        <v>0.7981433272361755</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L20">
-        <v>1700000</v>
+        <v>500000</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1694,37 +1694,37 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>3943.219937685429</v>
+        <v>0.332974482345468</v>
       </c>
       <c r="C21">
-        <v>0.07510895119400818</v>
+        <v>0.03515065562921205</v>
       </c>
       <c r="D21">
-        <v>0.107298501705726</v>
+        <v>0.1171688520973735</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H21">
-        <v>0.1499907672405243</v>
+        <v>0.308254063129425</v>
       </c>
       <c r="I21">
-        <v>0.7153673768043518</v>
+        <v>0.7602096199989319</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L21">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1735,37 +1735,37 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>3634.965135476868</v>
+        <v>0.3042028812361626</v>
       </c>
       <c r="C22">
-        <v>0.004543706419346085</v>
+        <v>0.03532032985417954</v>
       </c>
       <c r="D22">
-        <v>0.01514568806448695</v>
+        <v>0.05045761407739935</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0.1644486039876938</v>
+        <v>0.0637119859457016</v>
       </c>
       <c r="I22">
-        <v>0.9209982752799988</v>
+        <v>0.7919642329216003</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="L22">
-        <v>1500000</v>
+        <v>10000</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1776,37 +1776,37 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>3463.903501131713</v>
+        <v>0.2912347439834884</v>
       </c>
       <c r="C23">
-        <v>0.03402655698557674</v>
+        <v>0.03028687773778183</v>
       </c>
       <c r="D23">
-        <v>0.0486093671222525</v>
+        <v>0.1009562591259394</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H23">
-        <v>0.2228480279445648</v>
+        <v>0.2281453460454941</v>
       </c>
       <c r="I23">
-        <v>0.8725115060806274</v>
+        <v>0.8850170373916626</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3600</v>
+        <v>10000</v>
       </c>
       <c r="L23">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1817,37 +1817,37 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>3291.784575843511</v>
+        <v>0.2805475385471824</v>
       </c>
       <c r="C24">
-        <v>0.006270065858749545</v>
+        <v>0.03257375985723136</v>
       </c>
       <c r="D24">
-        <v>0.008957236941070779</v>
+        <v>0.04653394265318767</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.1147901564836502</v>
+        <v>0.05817018821835518</v>
       </c>
       <c r="I24">
-        <v>0.780314028263092</v>
+        <v>0.799962043762207</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="L24">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1858,37 +1858,37 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>3143.838172177966</v>
+        <v>0.279121339104614</v>
       </c>
       <c r="C25">
-        <v>0.008381333436891406</v>
+        <v>0.02557202125095959</v>
       </c>
       <c r="D25">
-        <v>0.02793777812297136</v>
+        <v>0.08524007083653196</v>
       </c>
       <c r="E25">
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
-        <v>0.2216329127550125</v>
+        <v>0.2128673195838928</v>
       </c>
       <c r="I25">
-        <v>0.8403618931770325</v>
+        <v>0.8008751273155212</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="L25">
-        <v>750000</v>
+        <v>100000</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1899,37 +1899,37 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>2987.946020457826</v>
+        <v>0.2732458744470946</v>
       </c>
       <c r="C26">
-        <v>0.01160367386585563</v>
+        <v>0.02505469627943568</v>
       </c>
       <c r="D26">
-        <v>0.01657667695122234</v>
+        <v>0.03579242325633669</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0.04366038739681244</v>
+        <v>0.04941267892718315</v>
       </c>
       <c r="I26">
-        <v>0.7593463063240051</v>
+        <v>0.7243570685386658</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L26">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1940,40 +1940,40 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>2802.310515457013</v>
+        <v>0.2718745671145313</v>
       </c>
       <c r="C27">
-        <v>0.005095110028103659</v>
+        <v>0.02951808559440016</v>
       </c>
       <c r="D27">
-        <v>0.007278728611576656</v>
+        <v>0.04216869370628595</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0.0592009648680687</v>
+        <v>0.05530979484319687</v>
       </c>
       <c r="I27">
-        <v>0.8196632862091064</v>
+        <v>0.7624091506004333</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="L27">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1981,37 +1981,37 @@
         <v>39</v>
       </c>
       <c r="B28">
-        <v>2049.286111742435</v>
+        <v>0.2538551975371817</v>
       </c>
       <c r="C28">
-        <v>0.009255407771571189</v>
+        <v>0.02483425480986803</v>
       </c>
       <c r="D28">
-        <v>0.03085135923857063</v>
+        <v>0.08278084936622676</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H28">
-        <v>0.1406347155570984</v>
+        <v>0.2299305200576782</v>
       </c>
       <c r="I28">
-        <v>0.8774891495704651</v>
+        <v>0.7200509905815125</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L28">
-        <v>422830</v>
+        <v>50000</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2022,16 +2022,16 @@
         <v>40</v>
       </c>
       <c r="B29">
-        <v>1976.49991819522</v>
+        <v>0.2345911331101637</v>
       </c>
       <c r="C29">
-        <v>0.01326510012211557</v>
+        <v>0.02439624088009928</v>
       </c>
       <c r="D29">
-        <v>0.0442170004070519</v>
+        <v>0.08132080293366428</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2040,19 +2040,19 @@
         <v>0.5</v>
       </c>
       <c r="H29">
-        <v>0.09649908542633057</v>
+        <v>0.2005931735038757</v>
       </c>
       <c r="I29">
-        <v>0.9164232015609741</v>
+        <v>0.8108032941818237</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L29">
-        <v>292000</v>
+        <v>25000</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>41</v>
       </c>
       <c r="B30">
-        <v>1606.335942182868</v>
+        <v>0.2002549333519815</v>
       </c>
       <c r="C30">
-        <v>0.01606335942182868</v>
+        <v>0.01969871087328618</v>
       </c>
       <c r="D30">
-        <v>0.05354453140609561</v>
+        <v>0.02814101553326598</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -2081,19 +2081,19 @@
         <v>0.25</v>
       </c>
       <c r="H30">
-        <v>0.251598060131073</v>
+        <v>0.1493974328041077</v>
       </c>
       <c r="I30">
-        <v>0.8512709736824036</v>
+        <v>0.75345379114151</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="L30">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2104,37 +2104,37 @@
         <v>42</v>
       </c>
       <c r="B31">
-        <v>1438.398059763877</v>
+        <v>0.1967581568304557</v>
       </c>
       <c r="C31">
-        <v>0.01106460045972213</v>
+        <v>0.02046181083453824</v>
       </c>
       <c r="D31">
-        <v>0.01580657208531733</v>
+        <v>0.02923115833505463</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H31">
-        <v>0.07957208156585693</v>
+        <v>0.07370575517416</v>
       </c>
       <c r="I31">
-        <v>0.7945787906646729</v>
+        <v>0.7931852340698242</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L31">
-        <v>250000</v>
+        <v>25000</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2145,34 +2145,34 @@
         <v>43</v>
       </c>
       <c r="B32">
-        <v>1406.461168802777</v>
+        <v>0.1849364203733319</v>
       </c>
       <c r="C32">
-        <v>0.02557202125095959</v>
+        <v>0.01606335942182868</v>
       </c>
       <c r="D32">
-        <v>0.08524007083653196</v>
+        <v>0.05354453140609561</v>
       </c>
       <c r="E32">
         <v>-1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H32">
-        <v>0.2128673195838928</v>
+        <v>0.251598060131073</v>
       </c>
       <c r="I32">
-        <v>0.8008751273155212</v>
+        <v>0.8512709736824036</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L32">
         <v>100000</v>
@@ -2186,37 +2186,37 @@
         <v>44</v>
       </c>
       <c r="B33">
-        <v>1365.480947229245</v>
+        <v>0.1773056103674154</v>
       </c>
       <c r="C33">
-        <v>0.02505469627943568</v>
+        <v>0.01665553188557065</v>
       </c>
       <c r="D33">
-        <v>0.03579242325633669</v>
+        <v>0.05551843961856884</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H33">
-        <v>0.04941267892718315</v>
+        <v>0.1261210292577744</v>
       </c>
       <c r="I33">
-        <v>0.7243570685386658</v>
+        <v>0.8803994059562683</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L33">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2227,16 +2227,16 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>1134.886558336658</v>
+        <v>0.1756449738041383</v>
       </c>
       <c r="C34">
-        <v>0.007321848763462313</v>
+        <v>0.01752713822980478</v>
       </c>
       <c r="D34">
-        <v>0.02440616254487438</v>
+        <v>0.05842379409934928</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -2245,10 +2245,10 @@
         <v>0.25</v>
       </c>
       <c r="H34">
-        <v>0.1112097501754761</v>
+        <v>0.2817049622535706</v>
       </c>
       <c r="I34">
-        <v>0.8778425455093384</v>
+        <v>0.8295742273330688</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>10000</v>
       </c>
       <c r="L34">
-        <v>300000</v>
+        <v>35000</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2268,37 +2268,37 @@
         <v>46</v>
       </c>
       <c r="B35">
-        <v>1014.412839265601</v>
+        <v>0.1754838360763242</v>
       </c>
       <c r="C35">
-        <v>0.003864429863868955</v>
+        <v>0.02048567305474744</v>
       </c>
       <c r="D35">
-        <v>0.01288143287956318</v>
+        <v>0.06828557684915815</v>
       </c>
       <c r="E35">
         <v>-1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H35">
-        <v>0.1172486245632172</v>
+        <v>0.3631011247634888</v>
       </c>
       <c r="I35">
-        <v>0.7324283719062805</v>
+        <v>0.7522485852241516</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="L35">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2309,37 +2309,37 @@
         <v>47</v>
       </c>
       <c r="B36">
-        <v>935.096334208702</v>
+        <v>0.1725010126029275</v>
       </c>
       <c r="C36">
-        <v>0.005268148361739167</v>
+        <v>0.01585769121524114</v>
       </c>
       <c r="D36">
-        <v>0.01756049453913056</v>
+        <v>0.02265384459320163</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H36">
-        <v>0.08058682084083557</v>
+        <v>0.05767177045345306</v>
       </c>
       <c r="I36">
-        <v>0.8716310858726501</v>
+        <v>0.785612940788269</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L36">
-        <v>345000</v>
+        <v>100000</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2350,37 +2350,37 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>920.4569616365375</v>
+        <v>0.1682004197585316</v>
       </c>
       <c r="C37">
-        <v>0.01082890543101809</v>
+        <v>0.01749195675966137</v>
       </c>
       <c r="D37">
-        <v>0.03609635143672696</v>
+        <v>0.02498850965665911</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
-        <v>0.1668155491352081</v>
+        <v>0.05552916973829269</v>
       </c>
       <c r="I37">
-        <v>0.8655392527580261</v>
+        <v>0.90001380443573</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L37">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2391,13 +2391,13 @@
         <v>49</v>
       </c>
       <c r="B38">
-        <v>874.8876831975715</v>
+        <v>0.162130283307055</v>
       </c>
       <c r="C38">
-        <v>0.01166516910930095</v>
+        <v>0.0168606945756139</v>
       </c>
       <c r="D38">
-        <v>0.01666452729900136</v>
+        <v>0.02408670653659128</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2409,19 +2409,19 @@
         <v>0.25</v>
       </c>
       <c r="H38">
-        <v>0.07647144794464111</v>
+        <v>0.1107635721564293</v>
       </c>
       <c r="I38">
-        <v>0.8716731667518616</v>
+        <v>0.8698421716690063</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="L38">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2432,13 +2432,13 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>840.4576344077805</v>
+        <v>0.1580100031760461</v>
       </c>
       <c r="C39">
-        <v>0.01585769121524114</v>
+        <v>0.01326510012211557</v>
       </c>
       <c r="D39">
-        <v>0.02265384459320163</v>
+        <v>0.0442170004070519</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2450,19 +2450,19 @@
         <v>0.5</v>
       </c>
       <c r="H39">
-        <v>0.05767177045345306</v>
+        <v>0.09649908542633057</v>
       </c>
       <c r="I39">
-        <v>0.785612940788269</v>
+        <v>0.9164232015609741</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>6000</v>
       </c>
       <c r="L39">
-        <v>100000</v>
+        <v>292000</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2473,37 +2473,37 @@
         <v>51</v>
       </c>
       <c r="B40">
-        <v>825.7601465733318</v>
+        <v>0.1566750627694608</v>
       </c>
       <c r="C40">
-        <v>0.003238275084601301</v>
+        <v>0.01660825792845815</v>
       </c>
       <c r="D40">
-        <v>0.01079425028200434</v>
+        <v>0.05536085976152716</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>0.1223275884985924</v>
+        <v>0.1180326044559479</v>
       </c>
       <c r="I40">
-        <v>0.8824052214622498</v>
+        <v>0.938060462474823</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L40">
-        <v>500000</v>
+        <v>20000</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2514,37 +2514,37 @@
         <v>52</v>
       </c>
       <c r="B41">
-        <v>819.1723923488458</v>
+        <v>0.1499754978487261</v>
       </c>
       <c r="C41">
-        <v>0.002730574641162819</v>
+        <v>0.01559666097828236</v>
       </c>
       <c r="D41">
-        <v>0.009101915470542732</v>
+        <v>0.05198886992760787</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H41">
-        <v>0.05154945701360703</v>
+        <v>0.1208978444337845</v>
       </c>
       <c r="I41">
-        <v>0.7062666416168213</v>
+        <v>0.8600462675094604</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="L41">
-        <v>500000</v>
+        <v>25000</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>53</v>
       </c>
       <c r="B42">
-        <v>723.3424063207997</v>
+        <v>0.1469431865534042</v>
       </c>
       <c r="C42">
-        <v>0.01157347850113279</v>
+        <v>0.01414407708813141</v>
       </c>
       <c r="D42">
-        <v>0.03857826167044265</v>
+        <v>0.04714692362710471</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -2573,19 +2573,19 @@
         <v>0.25</v>
       </c>
       <c r="H42">
-        <v>0.1873389333486557</v>
+        <v>0.2260482609272003</v>
       </c>
       <c r="I42">
-        <v>0.8237105011940002</v>
+        <v>0.8342806696891785</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L42">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2596,13 +2596,13 @@
         <v>54</v>
       </c>
       <c r="B43">
-        <v>719.9053652506838</v>
+        <v>0.1464748812842955</v>
       </c>
       <c r="C43">
-        <v>0.00654459422955167</v>
+        <v>0.01488716801517498</v>
       </c>
       <c r="D43">
-        <v>0.009349420327930957</v>
+        <v>0.0496238933839166</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2614,19 +2614,19 @@
         <v>0.5</v>
       </c>
       <c r="H43">
-        <v>0.0241690669208765</v>
+        <v>0.1095835864543915</v>
       </c>
       <c r="I43">
-        <v>0.7736682891845703</v>
+        <v>0.9056811332702637</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="L43">
-        <v>200000</v>
+        <v>35000</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2637,37 +2637,37 @@
         <v>55</v>
       </c>
       <c r="B44">
-        <v>706.2047506795723</v>
+        <v>0.1445676069201925</v>
       </c>
       <c r="C44">
-        <v>0.01284008637599222</v>
+        <v>0.01160367386585563</v>
       </c>
       <c r="D44">
-        <v>0.01834298053713175</v>
+        <v>0.01657667695122234</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H44">
-        <v>0.203728124499321</v>
+        <v>0.04366038739681244</v>
       </c>
       <c r="I44">
-        <v>0.9003656506538391</v>
+        <v>0.7593463063240051</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L44">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2678,37 +2678,37 @@
         <v>56</v>
       </c>
       <c r="B45">
-        <v>699.5323391939672</v>
+        <v>0.1404367101145209</v>
       </c>
       <c r="C45">
-        <v>0.01665553188557065</v>
+        <v>0.01606736029470679</v>
       </c>
       <c r="D45">
-        <v>0.05551843961856884</v>
+        <v>0.02295337184958113</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H45">
-        <v>0.1261210292577744</v>
+        <v>0.1334650367498398</v>
       </c>
       <c r="I45">
-        <v>0.8803994059562683</v>
+        <v>0.6879216432571411</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L45">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -2719,37 +2719,37 @@
         <v>57</v>
       </c>
       <c r="B46">
-        <v>682.9420072713707</v>
+        <v>0.1401509121361055</v>
       </c>
       <c r="C46">
-        <v>0.02483425480986803</v>
+        <v>0.01284008637599222</v>
       </c>
       <c r="D46">
-        <v>0.08278084936622676</v>
+        <v>0.01834298053713175</v>
       </c>
       <c r="E46">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H46">
-        <v>0.2299305200576782</v>
+        <v>0.203728124499321</v>
       </c>
       <c r="I46">
-        <v>0.7200509905815125</v>
+        <v>0.9003656506538391</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L46">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>58</v>
       </c>
       <c r="B47">
-        <v>632.5823712740241</v>
+        <v>0.1381963584362278</v>
       </c>
       <c r="C47">
-        <v>0.001916916276587952</v>
+        <v>0.01304150193750967</v>
       </c>
       <c r="D47">
-        <v>0.006389720921959841</v>
+        <v>0.04347167312503224</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -2778,19 +2778,19 @@
         <v>0.1</v>
       </c>
       <c r="H47">
-        <v>0.07870683819055557</v>
+        <v>0.5258178114891052</v>
       </c>
       <c r="I47">
-        <v>0.8118380904197693</v>
+        <v>0.826744019985199</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>160000</v>
+        <v>20000</v>
       </c>
       <c r="L47">
-        <v>500000</v>
+        <v>60000</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2801,37 +2801,37 @@
         <v>59</v>
       </c>
       <c r="B48">
-        <v>618.5753669835109</v>
+        <v>0.1356664597075125</v>
       </c>
       <c r="C48">
-        <v>0.009516544107438629</v>
+        <v>0.01410859646097751</v>
       </c>
       <c r="D48">
-        <v>0.0317218136914621</v>
+        <v>0.04702865486992502</v>
       </c>
       <c r="E48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H48">
-        <v>0.161273255944252</v>
+        <v>0.1041795685887337</v>
       </c>
       <c r="I48">
-        <v>0.7867842316627502</v>
+        <v>0.9028383493423462</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L48">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="B49">
-        <v>605.1010654088934</v>
+        <v>0.1352535547817636</v>
       </c>
       <c r="C49">
-        <v>0.005762867289608509</v>
+        <v>0.01406565652588448</v>
       </c>
       <c r="D49">
-        <v>0.01920955763202836</v>
+        <v>0.02009379503697784</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -2860,19 +2860,19 @@
         <v>0.25</v>
       </c>
       <c r="H49">
-        <v>0.09925241768360138</v>
+        <v>0.09346800297498703</v>
       </c>
       <c r="I49">
-        <v>0.7741698622703552</v>
+        <v>0.8599218726158142</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>105000</v>
+        <v>5000</v>
       </c>
       <c r="L49">
-        <v>105000</v>
+        <v>25000</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -2883,37 +2883,37 @@
         <v>61</v>
       </c>
       <c r="B50">
-        <v>535.9842691536361</v>
+        <v>0.1326351843474697</v>
       </c>
       <c r="C50">
-        <v>0.007549074213431494</v>
+        <v>0.01486476317469599</v>
       </c>
       <c r="D50">
-        <v>0.02516358071143832</v>
+        <v>0.02123537596385141</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H50">
-        <v>0.119029127061367</v>
+        <v>0.247460275888443</v>
       </c>
       <c r="I50">
-        <v>0.8456276655197144</v>
+        <v>0.8581327199935913</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L50">
-        <v>125000</v>
+        <v>10000</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -2924,37 +2924,37 @@
         <v>62</v>
       </c>
       <c r="B51">
-        <v>521.6600775003869</v>
+        <v>0.1320621263546427</v>
       </c>
       <c r="C51">
-        <v>0.01304150193750967</v>
+        <v>0.01399917650140594</v>
       </c>
       <c r="D51">
-        <v>0.04347167312503224</v>
+        <v>0.04666392167135314</v>
       </c>
       <c r="E51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H51">
-        <v>0.5258178114891052</v>
+        <v>0.1104801595211029</v>
       </c>
       <c r="I51">
-        <v>0.826744019985199</v>
+        <v>0.8447475433349609</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
+        <v>5000</v>
+      </c>
+      <c r="L51">
         <v>20000</v>
-      </c>
-      <c r="L51">
-        <v>60000</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>63</v>
       </c>
       <c r="B52">
-        <v>512.1664827054408</v>
+        <v>0.1309445180013421</v>
       </c>
       <c r="C52">
-        <v>0.01969871087328618</v>
+        <v>0.01166516910930095</v>
       </c>
       <c r="D52">
-        <v>0.02814101553326598</v>
+        <v>0.01666452729900136</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -2983,19 +2983,19 @@
         <v>0.25</v>
       </c>
       <c r="H52">
-        <v>0.1493974328041077</v>
+        <v>0.07647144794464111</v>
       </c>
       <c r="I52">
-        <v>0.75345379114151</v>
+        <v>0.8716731667518616</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="L52">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>64</v>
       </c>
       <c r="B53">
-        <v>502.6637800831465</v>
+        <v>0.1302889612656817</v>
       </c>
       <c r="C53">
-        <v>0.003696057206493724</v>
+        <v>0.01106460045972213</v>
       </c>
       <c r="D53">
-        <v>0.01232019068831242</v>
+        <v>0.01580657208531733</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -3024,19 +3024,19 @@
         <v>0.25</v>
       </c>
       <c r="H53">
-        <v>0.06052729859948158</v>
+        <v>0.07957208156585693</v>
       </c>
       <c r="I53">
-        <v>0.814190685749054</v>
+        <v>0.7945787906646729</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>10000</v>
       </c>
       <c r="L53">
-        <v>262000</v>
+        <v>250000</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3047,13 +3047,13 @@
         <v>65</v>
       </c>
       <c r="B54">
-        <v>484.864558612981</v>
+        <v>0.1278052036296219</v>
       </c>
       <c r="C54">
-        <v>0.009460771875375239</v>
+        <v>0.01157347850113279</v>
       </c>
       <c r="D54">
-        <v>0.0315359062512508</v>
+        <v>0.03857826167044265</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -3065,16 +3065,16 @@
         <v>0.25</v>
       </c>
       <c r="H54">
-        <v>0.1390868872404099</v>
+        <v>0.1873389333486557</v>
       </c>
       <c r="I54">
-        <v>0.9069411754608154</v>
+        <v>0.8237105011940002</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="L54">
         <v>100000</v>
@@ -3088,37 +3088,37 @@
         <v>66</v>
       </c>
       <c r="B55">
-        <v>459.6825053642709</v>
+        <v>0.1266417404381904</v>
       </c>
       <c r="C55">
-        <v>0.01414407708813141</v>
+        <v>0.01238916233395828</v>
       </c>
       <c r="D55">
-        <v>0.04714692362710471</v>
+        <v>0.01769880333422611</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H55">
-        <v>0.2260482609272003</v>
+        <v>0.2297095507383347</v>
       </c>
       <c r="I55">
-        <v>0.8342806696891785</v>
+        <v>0.7704861760139465</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L55">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3129,37 +3129,37 @@
         <v>67</v>
       </c>
       <c r="B56">
-        <v>456.9585231797566</v>
+        <v>0.1229126063743789</v>
       </c>
       <c r="C56">
-        <v>0.03515065562921205</v>
+        <v>0.01082890543101809</v>
       </c>
       <c r="D56">
-        <v>0.1171688520973735</v>
+        <v>0.03609635143672696</v>
       </c>
       <c r="E56">
         <v>-1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H56">
-        <v>0.308254063129425</v>
+        <v>0.1668155491352081</v>
       </c>
       <c r="I56">
-        <v>0.7602096199989319</v>
+        <v>0.8655392527580261</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="L56">
-        <v>20000</v>
+        <v>150000</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>68</v>
       </c>
       <c r="B57">
-        <v>454.3031660667274</v>
+        <v>0.1224436970857289</v>
       </c>
       <c r="C57">
-        <v>0.03028687773778183</v>
+        <v>0.0119784743538446</v>
       </c>
       <c r="D57">
-        <v>0.1009562591259394</v>
+        <v>0.03992824784614868</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3188,19 +3188,19 @@
         <v>0.5</v>
       </c>
       <c r="H57">
-        <v>0.2281453460454941</v>
+        <v>0.1060516238212585</v>
       </c>
       <c r="I57">
-        <v>0.8850170373916626</v>
+        <v>0.7529964447021484</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L57">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3211,13 +3211,13 @@
         <v>69</v>
       </c>
       <c r="B58">
-        <v>431.4109074468475</v>
+        <v>0.1139136944805009</v>
       </c>
       <c r="C58">
-        <v>0.01015084488110229</v>
+        <v>0.009255407771571189</v>
       </c>
       <c r="D58">
-        <v>0.01450120697300328</v>
+        <v>0.03085135923857063</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -3229,19 +3229,19 @@
         <v>0.25</v>
       </c>
       <c r="H58">
-        <v>0.06753623485565186</v>
+        <v>0.1406347155570984</v>
       </c>
       <c r="I58">
-        <v>0.858869731426239</v>
+        <v>0.8774891495704651</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L58">
-        <v>75000</v>
+        <v>422830</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3252,37 +3252,37 @@
         <v>70</v>
       </c>
       <c r="B59">
-        <v>419.4361184161542</v>
+        <v>0.1114025276390574</v>
       </c>
       <c r="C59">
-        <v>0.007989259398402936</v>
+        <v>0.008060673270720997</v>
       </c>
       <c r="D59">
-        <v>0.02663086466134312</v>
+        <v>0.01151524752960142</v>
       </c>
       <c r="E59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H59">
-        <v>0.1297265142202377</v>
+        <v>0.1328378170728683</v>
       </c>
       <c r="I59">
-        <v>0.8211386799812317</v>
+        <v>0.8668651580810547</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L59">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -3293,37 +3293,37 @@
         <v>71</v>
       </c>
       <c r="B60">
-        <v>413.4573793051887</v>
+        <v>0.1104884295991173</v>
       </c>
       <c r="C60">
-        <v>0.006360882758541364</v>
+        <v>0.01149021408962696</v>
       </c>
       <c r="D60">
-        <v>0.02120294252847121</v>
+        <v>0.03830071363208987</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H60">
-        <v>0.1023317649960518</v>
+        <v>0.09065715223550797</v>
       </c>
       <c r="I60">
-        <v>0.8287922143936157</v>
+        <v>0.8449573516845703</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L60">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -3334,37 +3334,37 @@
         <v>72</v>
       </c>
       <c r="B61">
-        <v>397.0724920203684</v>
+        <v>0.1081804254099923</v>
       </c>
       <c r="C61">
-        <v>0.004537971337375639</v>
+        <v>0.01015084488110229</v>
       </c>
       <c r="D61">
-        <v>0.01512657112458546</v>
+        <v>0.01450120697300328</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H61">
-        <v>0.1200625747442245</v>
+        <v>0.06753623485565186</v>
       </c>
       <c r="I61">
-        <v>0.839927077293396</v>
+        <v>0.858869731426239</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="L61">
-        <v>125000</v>
+        <v>75000</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -3375,37 +3375,37 @@
         <v>73</v>
       </c>
       <c r="B62">
-        <v>394.3606101706076</v>
+        <v>0.1075740006415779</v>
       </c>
       <c r="C62">
-        <v>0.01752713822980478</v>
+        <v>0.008381333436891406</v>
       </c>
       <c r="D62">
-        <v>0.05842379409934928</v>
+        <v>0.02793777812297136</v>
       </c>
       <c r="E62">
         <v>-1</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H62">
-        <v>0.2817049622535706</v>
+        <v>0.2216329127550125</v>
       </c>
       <c r="I62">
-        <v>0.8295742273330688</v>
+        <v>0.8403618931770325</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="L62">
-        <v>35000</v>
+        <v>750000</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -3416,37 +3416,37 @@
         <v>74</v>
       </c>
       <c r="B63">
-        <v>383.2532747273149</v>
+        <v>0.1054638447785624</v>
       </c>
       <c r="C63">
-        <v>0.005988332417614295</v>
+        <v>0.009516544107438629</v>
       </c>
       <c r="D63">
-        <v>0.01996110805871432</v>
+        <v>0.0317218136914621</v>
       </c>
       <c r="E63">
         <v>-1</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H63">
-        <v>0.2524451911449432</v>
+        <v>0.161273255944252</v>
       </c>
       <c r="I63">
-        <v>0.7907105684280396</v>
+        <v>0.7867842316627502</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>64000</v>
+        <v>10000</v>
       </c>
       <c r="L63">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -3457,28 +3457,28 @@
         <v>75</v>
       </c>
       <c r="B64">
-        <v>380.6560937575656</v>
+        <v>0.1028553903124469</v>
       </c>
       <c r="C64">
-        <v>0.004911691532355685</v>
+        <v>0.01069641825166823</v>
       </c>
       <c r="D64">
-        <v>0.01637230510785228</v>
+        <v>0.03565472750556075</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H64">
-        <v>0.1817062348127365</v>
+        <v>0.2701554894447327</v>
       </c>
       <c r="I64">
-        <v>0.9010315537452698</v>
+        <v>0.8798569440841675</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>5000</v>
       </c>
       <c r="L64">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -3498,37 +3498,37 @@
         <v>76</v>
       </c>
       <c r="B65">
-        <v>365.9436132014893</v>
+        <v>0.102597249864295</v>
       </c>
       <c r="C65">
-        <v>0.02439624088009928</v>
+        <v>0.009460771875375239</v>
       </c>
       <c r="D65">
-        <v>0.08132080293366428</v>
+        <v>0.0315359062512508</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H65">
-        <v>0.2005931735038757</v>
+        <v>0.1390868872404099</v>
       </c>
       <c r="I65">
-        <v>0.8108032941818237</v>
+        <v>0.9069411754608154</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L65">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -3539,34 +3539,34 @@
         <v>77</v>
       </c>
       <c r="B66">
-        <v>340.7019641838526</v>
+        <v>0.1008123626312794</v>
       </c>
       <c r="C66">
-        <v>0.01238916233395828</v>
+        <v>0.009635008282802414</v>
       </c>
       <c r="D66">
-        <v>0.01769880333422611</v>
+        <v>0.01376429754686059</v>
       </c>
       <c r="E66">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G66">
         <v>0.1</v>
       </c>
       <c r="H66">
-        <v>0.2297095507383347</v>
+        <v>0.1621406227350235</v>
       </c>
       <c r="I66">
-        <v>0.7704861760139465</v>
+        <v>0.8489111065864563</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L66">
         <v>50000</v>
@@ -3580,37 +3580,37 @@
         <v>78</v>
       </c>
       <c r="B67">
-        <v>337.2252898980845</v>
+        <v>0.100182991876289</v>
       </c>
       <c r="C67">
-        <v>0.009635008282802414</v>
+        <v>0.0106899559368373</v>
       </c>
       <c r="D67">
-        <v>0.01376429754686059</v>
+        <v>0.03563318645612434</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H67">
-        <v>0.1621406227350235</v>
+        <v>0.08150313049554825</v>
       </c>
       <c r="I67">
-        <v>0.8489111065864563</v>
+        <v>0.8744004368782043</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="L67">
-        <v>50000</v>
+        <v>21000</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -3621,37 +3621,37 @@
         <v>79</v>
       </c>
       <c r="B68">
-        <v>329.4080447307266</v>
+        <v>0.09530995229537149</v>
       </c>
       <c r="C68">
-        <v>0.0119784743538446</v>
+        <v>0.01085570460633585</v>
       </c>
       <c r="D68">
-        <v>0.03992824784614868</v>
+        <v>0.03618568202111949</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H68">
-        <v>0.1060516238212585</v>
+        <v>0.1668735891580582</v>
       </c>
       <c r="I68">
-        <v>0.7529964447021484</v>
+        <v>0.8673794865608215</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L68">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -3662,31 +3662,31 @@
         <v>80</v>
       </c>
       <c r="B69">
-        <v>306.9271625180736</v>
+        <v>0.09306653515727224</v>
       </c>
       <c r="C69">
-        <v>0.02046181083453824</v>
+        <v>0.009678428930674166</v>
       </c>
       <c r="D69">
-        <v>0.02923115833505463</v>
+        <v>0.03226142976891389</v>
       </c>
       <c r="E69">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H69">
-        <v>0.07370575517416</v>
+        <v>0.1377298533916473</v>
       </c>
       <c r="I69">
-        <v>0.7931852340698242</v>
+        <v>0.9369480609893799</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>5000</v>
@@ -3703,34 +3703,34 @@
         <v>81</v>
       </c>
       <c r="B70">
-        <v>302.8378190547698</v>
+        <v>0.0912782512822365</v>
       </c>
       <c r="C70">
-        <v>0.006056756381095396</v>
+        <v>0.008854241468606028</v>
       </c>
       <c r="D70">
-        <v>0.02018918793698465</v>
+        <v>0.0126489163837229</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H70">
-        <v>0.0918148010969162</v>
+        <v>0.1106727868318558</v>
       </c>
       <c r="I70">
-        <v>0.8795613646507263</v>
+        <v>0.7619407773017883</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="L70">
         <v>50000</v>
@@ -3744,13 +3744,13 @@
         <v>82</v>
       </c>
       <c r="B71">
-        <v>299.5464921691782</v>
+        <v>0.09046213107612393</v>
       </c>
       <c r="C71">
-        <v>0.007987906457844751</v>
+        <v>0.009407584638861266</v>
       </c>
       <c r="D71">
-        <v>0.0266263548594825</v>
+        <v>0.03135861546287089</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -3762,19 +3762,19 @@
         <v>0.25</v>
       </c>
       <c r="H71">
-        <v>0.1262806355953217</v>
+        <v>0.1428203731775284</v>
       </c>
       <c r="I71">
-        <v>0.843402624130249</v>
+        <v>0.8782672882080078</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
+        <v>5000</v>
+      </c>
+      <c r="L71">
         <v>25000</v>
-      </c>
-      <c r="L71">
-        <v>50000</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -3785,40 +3785,40 @@
         <v>83</v>
       </c>
       <c r="B72">
-        <v>295.1808559440016</v>
+        <v>0.0886575427717164</v>
       </c>
       <c r="C72">
-        <v>0.02951808559440016</v>
+        <v>0.00921991697052249</v>
       </c>
       <c r="D72">
-        <v>0.04216869370628595</v>
+        <v>0.0307330565684083</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H72">
-        <v>0.05530979484319687</v>
+        <v>0.0734049454331398</v>
       </c>
       <c r="I72">
-        <v>0.7624091506004333</v>
+        <v>0.8373565673828125</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L72">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3826,37 +3826,37 @@
         <v>84</v>
       </c>
       <c r="B73">
-        <v>283.2649489710781</v>
+        <v>0.08816360656731093</v>
       </c>
       <c r="C73">
-        <v>0.006294776643801736</v>
+        <v>0.009317924533735056</v>
       </c>
       <c r="D73">
-        <v>0.02098258881267245</v>
+        <v>0.03105974844578352</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H73">
-        <v>0.1035734638571739</v>
+        <v>0.07300762832164764</v>
       </c>
       <c r="I73">
-        <v>0.8103461265563965</v>
+        <v>0.8508630990982056</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>10000</v>
+        <v>12857</v>
       </c>
       <c r="L73">
-        <v>80000</v>
+        <v>12857</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -3867,37 +3867,37 @@
         <v>85</v>
       </c>
       <c r="B74">
-        <v>279.1344002845308</v>
+        <v>0.08761556268774989</v>
       </c>
       <c r="C74">
-        <v>0.01488716801517498</v>
+        <v>0.01073614358786119</v>
       </c>
       <c r="D74">
-        <v>0.0496238933839166</v>
+        <v>0.01533734798265884</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H74">
-        <v>0.1095835864543915</v>
+        <v>0.1182877272367477</v>
       </c>
       <c r="I74">
-        <v>0.9056811332702637</v>
+        <v>0.8644090890884399</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L74">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -3908,28 +3908,28 @@
         <v>86</v>
       </c>
       <c r="B75">
-        <v>273.0642813387967</v>
+        <v>0.08750478264122717</v>
       </c>
       <c r="C75">
-        <v>0.002100494471836898</v>
+        <v>0.007321848763462313</v>
       </c>
       <c r="D75">
-        <v>0.007001648239456326</v>
+        <v>0.02440616254487438</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H75">
-        <v>0.08085564523935318</v>
+        <v>0.1112097501754761</v>
       </c>
       <c r="I75">
-        <v>0.8659442663192749</v>
+        <v>0.8778425455093384</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>10000</v>
       </c>
       <c r="L75">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -3949,37 +3949,37 @@
         <v>87</v>
       </c>
       <c r="B76">
-        <v>265.6272440581808</v>
+        <v>0.08683196479992131</v>
       </c>
       <c r="C76">
-        <v>0.008854241468606028</v>
+        <v>0.007989259398402936</v>
       </c>
       <c r="D76">
-        <v>0.0126489163837229</v>
+        <v>0.02663086466134312</v>
       </c>
       <c r="E76">
         <v>-1</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H76">
-        <v>0.1106727868318558</v>
+        <v>0.1297265142202377</v>
       </c>
       <c r="I76">
-        <v>0.7619407773017883</v>
+        <v>0.8211386799812317</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L76">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -3990,37 +3990,37 @@
         <v>88</v>
       </c>
       <c r="B77">
-        <v>262.3793513949206</v>
+        <v>0.08432655031338541</v>
       </c>
       <c r="C77">
-        <v>0.01749195675966137</v>
+        <v>0.007549074213431494</v>
       </c>
       <c r="D77">
-        <v>0.02498850965665911</v>
+        <v>0.02516358071143832</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H77">
-        <v>0.05552916973829269</v>
+        <v>0.119029127061367</v>
       </c>
       <c r="I77">
-        <v>0.90001380443573</v>
+        <v>0.8456276655197144</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L77">
-        <v>25000</v>
+        <v>125000</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>89</v>
       </c>
       <c r="B78">
-        <v>252.9104186342085</v>
+        <v>0.08412961235414435</v>
       </c>
       <c r="C78">
-        <v>0.0168606945756139</v>
+        <v>0.007987906457844751</v>
       </c>
       <c r="D78">
-        <v>0.02408670653659128</v>
+        <v>0.0266263548594825</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -4049,19 +4049,19 @@
         <v>0.25</v>
       </c>
       <c r="H78">
-        <v>0.1107635721564293</v>
+        <v>0.1262806355953217</v>
       </c>
       <c r="I78">
-        <v>0.8698421716690063</v>
+        <v>0.843402624130249</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="L78">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -4072,13 +4072,13 @@
         <v>90</v>
       </c>
       <c r="B79">
-        <v>247.7559458536838</v>
+        <v>0.08323098450336093</v>
       </c>
       <c r="C79">
-        <v>0.0006193898646342094</v>
+        <v>0.006003258329004679</v>
       </c>
       <c r="D79">
-        <v>0.002064632882114031</v>
+        <v>0.02001086109668226</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -4090,19 +4090,19 @@
         <v>0.25</v>
       </c>
       <c r="H79">
-        <v>0.01033424399793148</v>
+        <v>0.09454035013914108</v>
       </c>
       <c r="I79">
-        <v>0.7991423010826111</v>
+        <v>0.8466590642929077</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="L79">
-        <v>400000</v>
+        <v>2000000</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4113,37 +4113,37 @@
         <v>91</v>
       </c>
       <c r="B80">
-        <v>243.9996110393601</v>
+        <v>0.08298211451640021</v>
       </c>
       <c r="C80">
-        <v>0.04879992220787201</v>
+        <v>0.008629702357639423</v>
       </c>
       <c r="D80">
-        <v>0.1626664073595734</v>
+        <v>0.02876567452546475</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H80">
-        <v>0.3853446543216705</v>
+        <v>0.1304278969764709</v>
       </c>
       <c r="I80">
-        <v>0.8442645072937012</v>
+        <v>0.882193922996521</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L80">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -4154,37 +4154,37 @@
         <v>92</v>
       </c>
       <c r="B81">
-        <v>233.9499146742354</v>
+        <v>0.082584012084341</v>
       </c>
       <c r="C81">
-        <v>0.01559666097828236</v>
+        <v>0.006270065858749545</v>
       </c>
       <c r="D81">
-        <v>0.05198886992760787</v>
+        <v>0.008957236941070779</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H81">
-        <v>0.1208978444337845</v>
+        <v>0.1147901564836502</v>
       </c>
       <c r="I81">
-        <v>0.8600462675094604</v>
+        <v>0.780314028263092</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="L81">
-        <v>25000</v>
+        <v>1000000</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -4195,37 +4195,37 @@
         <v>93</v>
       </c>
       <c r="B82">
-        <v>226.2088519136611</v>
+        <v>0.07978869375825708</v>
       </c>
       <c r="C82">
-        <v>0.003770147531894352</v>
+        <v>0.008297603437214396</v>
       </c>
       <c r="D82">
-        <v>0.01256715843964784</v>
+        <v>0.02765867812404799</v>
       </c>
       <c r="E82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H82">
-        <v>0.06597620248794556</v>
+        <v>0.06037312373518944</v>
       </c>
       <c r="I82">
-        <v>0.761920690536499</v>
+        <v>0.9162579774856567</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L82">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         <v>94</v>
       </c>
       <c r="B83">
-        <v>212.0179194217017</v>
+        <v>0.07737710418000199</v>
       </c>
       <c r="C83">
-        <v>0.0008463789198471127</v>
+        <v>0.008775455485964478</v>
       </c>
       <c r="D83">
-        <v>0.002821263066157043</v>
+        <v>0.02925151828654826</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F83">
         <v>4</v>
@@ -4254,19 +4254,19 @@
         <v>0.25</v>
       </c>
       <c r="H83">
-        <v>0.01460669934749603</v>
+        <v>0.1412145495414734</v>
       </c>
       <c r="I83">
-        <v>0.7725942730903625</v>
+        <v>0.8285695314407349</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="L83">
-        <v>500000</v>
+        <v>10000</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -4277,34 +4277,34 @@
         <v>95</v>
       </c>
       <c r="B84">
-        <v>211.6289469146626</v>
+        <v>0.07700200403282884</v>
       </c>
       <c r="C84">
-        <v>0.01410859646097751</v>
+        <v>0.007881463582436909</v>
       </c>
       <c r="D84">
-        <v>0.04702865486992502</v>
+        <v>0.0262715452747897</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H84">
-        <v>0.1041795685887337</v>
+        <v>0.1153904870152473</v>
       </c>
       <c r="I84">
-        <v>0.9028383493423462</v>
+        <v>0.9107005596160889</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L84">
         <v>25000</v>
@@ -4318,37 +4318,37 @@
         <v>96</v>
       </c>
       <c r="B85">
-        <v>210.9848478882672</v>
+        <v>0.07658729519813623</v>
       </c>
       <c r="C85">
-        <v>0.01406565652588448</v>
+        <v>0.01196008554454417</v>
       </c>
       <c r="D85">
-        <v>0.02009379503697784</v>
+        <v>0.01708583649220596</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H85">
-        <v>0.09346800297498703</v>
+        <v>0.05326394736766815</v>
       </c>
       <c r="I85">
-        <v>0.8599218726158142</v>
+        <v>0.641553521156311</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85">
-        <v>5000</v>
+        <v>180</v>
       </c>
       <c r="L85">
-        <v>25000</v>
+        <v>1026</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -4359,13 +4359,13 @@
         <v>97</v>
       </c>
       <c r="B86">
-        <v>207.6032241057269</v>
+        <v>0.07597125151210829</v>
       </c>
       <c r="C86">
-        <v>0.01660825792845815</v>
+        <v>0.00654459422955167</v>
       </c>
       <c r="D86">
-        <v>0.05536085976152716</v>
+        <v>0.009349420327930957</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4377,19 +4377,19 @@
         <v>0.5</v>
       </c>
       <c r="H86">
-        <v>0.1180326044559479</v>
+        <v>0.0241690669208765</v>
       </c>
       <c r="I86">
-        <v>0.938060462474823</v>
+        <v>0.7736682891845703</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L86">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -4400,37 +4400,37 @@
         <v>98</v>
       </c>
       <c r="B87">
-        <v>194.2618141979875</v>
+        <v>0.0740490151072269</v>
       </c>
       <c r="C87">
-        <v>0.03532032985417954</v>
+        <v>0.007700707121959637</v>
       </c>
       <c r="D87">
-        <v>0.05045761407739935</v>
+        <v>0.01100101017422805</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H87">
-        <v>0.0637119859457016</v>
+        <v>0.05721230059862137</v>
       </c>
       <c r="I87">
-        <v>0.7919642329216003</v>
+        <v>0.7691360116004944</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L87">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -4441,37 +4441,37 @@
         <v>99</v>
       </c>
       <c r="B88">
-        <v>179.1556792147725</v>
+        <v>0.07181736234774028</v>
       </c>
       <c r="C88">
-        <v>0.03257375985723136</v>
+        <v>0.007887605148957774</v>
       </c>
       <c r="D88">
-        <v>0.04653394265318767</v>
+        <v>0.01126800735565396</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H88">
-        <v>0.05817018821835518</v>
+        <v>0.09893295168876648</v>
       </c>
       <c r="I88">
-        <v>0.799962043762207</v>
+        <v>0.7593026161193848</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="L88">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -4482,37 +4482,37 @@
         <v>100</v>
       </c>
       <c r="B89">
-        <v>174.9897062675743</v>
+        <v>0.07067949051341724</v>
       </c>
       <c r="C89">
-        <v>0.01399917650140594</v>
+        <v>0.00820644074347605</v>
       </c>
       <c r="D89">
-        <v>0.04666392167135314</v>
+        <v>0.0273548024782535</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H89">
-        <v>0.1104801595211029</v>
+        <v>0.1251510381698608</v>
       </c>
       <c r="I89">
-        <v>0.8447475433349609</v>
+        <v>0.8742972612380981</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L89">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -4523,37 +4523,37 @@
         <v>101</v>
       </c>
       <c r="B90">
-        <v>172.3532113444044</v>
+        <v>0.07049230732583626</v>
       </c>
       <c r="C90">
-        <v>0.01149021408962696</v>
+        <v>0.006360882758541364</v>
       </c>
       <c r="D90">
-        <v>0.03830071363208987</v>
+        <v>0.02120294252847121</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H90">
-        <v>0.09065715223550797</v>
+        <v>0.1023317649960518</v>
       </c>
       <c r="I90">
-        <v>0.8449573516845703</v>
+        <v>0.8287922143936157</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L90">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -4564,28 +4564,28 @@
         <v>102</v>
       </c>
       <c r="B91">
-        <v>160.4462737750234</v>
+        <v>0.07006999869610188</v>
       </c>
       <c r="C91">
-        <v>0.01069641825166823</v>
+        <v>0.007286910395950863</v>
       </c>
       <c r="D91">
-        <v>0.03565472750556075</v>
+        <v>0.02428970131983621</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H91">
-        <v>0.2701554894447327</v>
+        <v>0.1086447164416313</v>
       </c>
       <c r="I91">
-        <v>0.8798569440841675</v>
+        <v>0.8942800760269165</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4605,37 +4605,37 @@
         <v>103</v>
       </c>
       <c r="B92">
-        <v>159.8866793981134</v>
+        <v>0.06744500660504844</v>
       </c>
       <c r="C92">
-        <v>0.006270065858749545</v>
+        <v>0.006294776643801736</v>
       </c>
       <c r="D92">
-        <v>0.008957236941070779</v>
+        <v>0.02098258881267245</v>
       </c>
       <c r="E92">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G92">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H92">
-        <v>0.1147901564836502</v>
+        <v>0.1035734638571739</v>
       </c>
       <c r="I92">
-        <v>0.780314028263092</v>
+        <v>0.8103461265563965</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="L92">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -4646,37 +4646,37 @@
         <v>104</v>
       </c>
       <c r="B93">
-        <v>145.1764339601125</v>
+        <v>0.06734551035336236</v>
       </c>
       <c r="C93">
-        <v>0.009678428930674166</v>
+        <v>0.005095110028103659</v>
       </c>
       <c r="D93">
-        <v>0.03226142976891389</v>
+        <v>0.007278728611576656</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H93">
-        <v>0.1377298533916473</v>
+        <v>0.0592009648680687</v>
       </c>
       <c r="I93">
-        <v>0.9369480609893799</v>
+        <v>0.8196632862091064</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="L93">
-        <v>25000</v>
+        <v>1000000</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>105</v>
       </c>
       <c r="B94">
-        <v>141.113769582919</v>
+        <v>0.06662868769511343</v>
       </c>
       <c r="C94">
-        <v>0.009407584638861266</v>
+        <v>0.005762867289608509</v>
       </c>
       <c r="D94">
-        <v>0.03135861546287089</v>
+        <v>0.01920955763202836</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -4705,19 +4705,19 @@
         <v>0.25</v>
       </c>
       <c r="H94">
-        <v>0.1428203731775284</v>
+        <v>0.09925241768360138</v>
       </c>
       <c r="I94">
-        <v>0.8782672882080078</v>
+        <v>0.7741698622703552</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94">
-        <v>5000</v>
+        <v>105000</v>
       </c>
       <c r="L94">
-        <v>25000</v>
+        <v>105000</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -4728,37 +4728,37 @@
         <v>106</v>
       </c>
       <c r="B95">
-        <v>138.2987545578374</v>
+        <v>0.06627080282618845</v>
       </c>
       <c r="C95">
-        <v>0.00921991697052249</v>
+        <v>0.005988332417614295</v>
       </c>
       <c r="D95">
-        <v>0.0307330565684083</v>
+        <v>0.01996110805871432</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H95">
-        <v>0.0734049454331398</v>
+        <v>0.2524451911449432</v>
       </c>
       <c r="I95">
-        <v>0.8373565673828125</v>
+        <v>0.7907105684280396</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="L95">
-        <v>25000</v>
+        <v>64000</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -4769,13 +4769,13 @@
         <v>107</v>
       </c>
       <c r="B96">
-        <v>137.9256126926459</v>
+        <v>0.06553288230005566</v>
       </c>
       <c r="C96">
-        <v>0.007881463582436909</v>
+        <v>0.006056756381095396</v>
       </c>
       <c r="D96">
-        <v>0.0262715452747897</v>
+        <v>0.02018918793698465</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -4787,19 +4787,19 @@
         <v>0.25</v>
       </c>
       <c r="H96">
-        <v>0.1153904870152473</v>
+        <v>0.0918148010969162</v>
       </c>
       <c r="I96">
-        <v>0.9107005596160889</v>
+        <v>0.8795613646507263</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="L96">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -4810,37 +4810,37 @@
         <v>108</v>
       </c>
       <c r="B97">
-        <v>132.3643279241873</v>
+        <v>0.06510130723835912</v>
       </c>
       <c r="C97">
-        <v>0.002647286558483747</v>
+        <v>0.004767255606443332</v>
       </c>
       <c r="D97">
-        <v>0.008824288528279156</v>
+        <v>0.01589085202147777</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H97">
-        <v>0.02354172430932522</v>
+        <v>0.07940725982189178</v>
       </c>
       <c r="I97">
-        <v>0.7496722340583801</v>
+        <v>0.8004735112190247</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="L97">
-        <v>50000</v>
+        <v>1700000</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -4851,13 +4851,13 @@
         <v>109</v>
       </c>
       <c r="B98">
-        <v>129.4455353645913</v>
+        <v>0.06367469486474364</v>
       </c>
       <c r="C98">
-        <v>0.008629702357639423</v>
+        <v>0.005268148361739167</v>
       </c>
       <c r="D98">
-        <v>0.02876567452546475</v>
+        <v>0.01756049453913056</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -4869,19 +4869,19 @@
         <v>0.25</v>
       </c>
       <c r="H98">
-        <v>0.1304278969764709</v>
+        <v>0.08058682084083557</v>
       </c>
       <c r="I98">
-        <v>0.882193922996521</v>
+        <v>0.8716310858726501</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L98">
-        <v>25000</v>
+        <v>345000</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -4892,37 +4892,37 @@
         <v>110</v>
       </c>
       <c r="B99">
-        <v>126.4481111662018</v>
+        <v>0.06361905360584102</v>
       </c>
       <c r="C99">
-        <v>0.00109923813849305</v>
+        <v>0.006270065858749545</v>
       </c>
       <c r="D99">
-        <v>0.001570340197847214</v>
+        <v>0.008957236941070779</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G99">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H99">
-        <v>0.004330783616751432</v>
+        <v>0.1147901564836502</v>
       </c>
       <c r="I99">
-        <v>0.7251991033554077</v>
+        <v>0.780314028263092</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99">
-        <v>30065</v>
+        <v>1000</v>
       </c>
       <c r="L99">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -4933,37 +4933,37 @@
         <v>111</v>
       </c>
       <c r="B100">
-        <v>125.6069822578383</v>
+        <v>0.06175973090185331</v>
       </c>
       <c r="C100">
-        <v>0.0106899559368373</v>
+        <v>0.004543706419346085</v>
       </c>
       <c r="D100">
-        <v>0.03563318645612434</v>
+        <v>0.01514568806448695</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H100">
-        <v>0.08150313049554825</v>
+        <v>0.1644486039876938</v>
       </c>
       <c r="I100">
-        <v>0.8744004368782043</v>
+        <v>0.9209982752799988</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>2500</v>
+        <v>100000</v>
       </c>
       <c r="L100">
-        <v>21000</v>
+        <v>1500000</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -4974,16 +4974,16 @@
         <v>112</v>
       </c>
       <c r="B101">
-        <v>124.6289368087761</v>
+        <v>0.05529604979102765</v>
       </c>
       <c r="C101">
-        <v>0.004154297893625869</v>
+        <v>0.004911691532355685</v>
       </c>
       <c r="D101">
-        <v>0.005934711276608384</v>
+        <v>0.01637230510785228</v>
       </c>
       <c r="E101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F101">
         <v>5</v>
@@ -4992,19 +4992,19 @@
         <v>0.1</v>
       </c>
       <c r="H101">
-        <v>0.07662791758775711</v>
+        <v>0.1817062348127365</v>
       </c>
       <c r="I101">
-        <v>0.7744842171669006</v>
+        <v>0.9010315537452698</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L101">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -5015,28 +5015,28 @@
         <v>113</v>
       </c>
       <c r="B102">
-        <v>124.4640515582159</v>
+        <v>0.05495030446702375</v>
       </c>
       <c r="C102">
-        <v>0.008297603437214396</v>
+        <v>0.005714541919974325</v>
       </c>
       <c r="D102">
-        <v>0.02765867812404799</v>
+        <v>0.01904847306658108</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H102">
-        <v>0.06037312373518944</v>
+        <v>0.08709614723920822</v>
       </c>
       <c r="I102">
-        <v>0.9162579774856567</v>
+        <v>0.8748250603675842</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -5056,37 +5056,37 @@
         <v>114</v>
       </c>
       <c r="B103">
-        <v>119.8005557302316</v>
+        <v>0.05491183929753299</v>
       </c>
       <c r="C103">
-        <v>0.009317924533735056</v>
+        <v>0.005620759105254648</v>
       </c>
       <c r="D103">
-        <v>0.03105974844578352</v>
+        <v>0.008029655864649498</v>
       </c>
       <c r="E103">
         <v>-1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H103">
-        <v>0.07300762832164764</v>
+        <v>0.0698191225528717</v>
       </c>
       <c r="I103">
-        <v>0.8508630990982056</v>
+        <v>0.7667102813720703</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>12857</v>
+        <v>5830</v>
       </c>
       <c r="L103">
-        <v>12857</v>
+        <v>29151</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -5097,37 +5097,37 @@
         <v>115</v>
       </c>
       <c r="B104">
-        <v>115.5106068293946</v>
+        <v>0.05163941599924027</v>
       </c>
       <c r="C104">
-        <v>0.007700707121959637</v>
+        <v>0.004537971337375639</v>
       </c>
       <c r="D104">
-        <v>0.01100101017422805</v>
+        <v>0.01512657112458546</v>
       </c>
       <c r="E104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H104">
-        <v>0.05721230059862137</v>
+        <v>0.1200625747442245</v>
       </c>
       <c r="I104">
-        <v>0.7691360116004944</v>
+        <v>0.839927077293396</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="L104">
-        <v>25000</v>
+        <v>125000</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -5138,37 +5138,37 @@
         <v>116</v>
       </c>
       <c r="B105">
-        <v>112.8356276082624</v>
+        <v>0.05132484280283168</v>
       </c>
       <c r="C105">
-        <v>0.005128892164011929</v>
+        <v>0.005337513023406182</v>
       </c>
       <c r="D105">
-        <v>0.007326988805731328</v>
+        <v>0.01779171007802061</v>
       </c>
       <c r="E105">
         <v>-1</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G105">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H105">
-        <v>0.09243989735841751</v>
+        <v>0.08494194597005844</v>
       </c>
       <c r="I105">
-        <v>0.792621910572052</v>
+        <v>0.8378291726112366</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L105">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -5179,37 +5179,37 @@
         <v>117</v>
       </c>
       <c r="B106">
-        <v>111.4857238102199</v>
+        <v>0.05128298846510491</v>
       </c>
       <c r="C106">
-        <v>0.01486476317469599</v>
+        <v>0.005128892164011929</v>
       </c>
       <c r="D106">
-        <v>0.02123537596385141</v>
+        <v>0.007326988805731328</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G106">
         <v>0.1</v>
       </c>
       <c r="H106">
-        <v>0.247460275888443</v>
+        <v>0.09243989735841751</v>
       </c>
       <c r="I106">
-        <v>0.8581327199935913</v>
+        <v>0.792621910572052</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="K106">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L106">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -5220,16 +5220,16 @@
         <v>118</v>
       </c>
       <c r="B107">
-        <v>109.3036559392629</v>
+        <v>0.05092839959073961</v>
       </c>
       <c r="C107">
-        <v>0.007286910395950863</v>
+        <v>0.005212725717048628</v>
       </c>
       <c r="D107">
-        <v>0.02428970131983621</v>
+        <v>0.01737575239016209</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F107">
         <v>4</v>
@@ -5238,10 +5238,10 @@
         <v>0.25</v>
       </c>
       <c r="H107">
-        <v>0.1086447164416313</v>
+        <v>0.08539697527885437</v>
       </c>
       <c r="I107">
-        <v>0.8942800760269165</v>
+        <v>0.8138813972473145</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>5000</v>
       </c>
       <c r="L107">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -5261,37 +5261,37 @@
         <v>119</v>
       </c>
       <c r="B108">
-        <v>109.1370509798475</v>
+        <v>0.04935773390626116</v>
       </c>
       <c r="C108">
-        <v>0.0029103213594626</v>
+        <v>0.005132944070428813</v>
       </c>
       <c r="D108">
-        <v>0.009701071198208667</v>
+        <v>0.01710981356809604</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G108">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H108">
-        <v>0.1068367660045624</v>
+        <v>0.08236092329025269</v>
       </c>
       <c r="I108">
-        <v>0.9080274105072021</v>
+        <v>0.8309675455093384</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
+        <v>5000</v>
+      </c>
+      <c r="L108">
         <v>25000</v>
-      </c>
-      <c r="L108">
-        <v>50000</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -5302,37 +5302,37 @@
         <v>120</v>
       </c>
       <c r="B109">
-        <v>107.5497835374241</v>
+        <v>0.04822039514465811</v>
       </c>
       <c r="C109">
-        <v>0.02048567305474744</v>
+        <v>0.003864429863868955</v>
       </c>
       <c r="D109">
-        <v>0.06828557684915815</v>
+        <v>0.01288143287956318</v>
       </c>
       <c r="E109">
         <v>-1</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H109">
-        <v>0.3631011247634888</v>
+        <v>0.1172486245632172</v>
       </c>
       <c r="I109">
-        <v>0.7522485852241516</v>
+        <v>0.7324283719062805</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="L109">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -5343,28 +5343,28 @@
         <v>121</v>
       </c>
       <c r="B110">
-        <v>102.1700709953731</v>
+        <v>0.04691144280508338</v>
       </c>
       <c r="C110">
-        <v>0.003715275308922656</v>
+        <v>0.004878542694827159</v>
       </c>
       <c r="D110">
-        <v>0.01238425102974219</v>
+        <v>0.0162618089827572</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H110">
-        <v>0.1340523809194565</v>
+        <v>0.03872211650013924</v>
       </c>
       <c r="I110">
-        <v>0.9238367080688477</v>
+        <v>0.8399235606193542</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>5000</v>
       </c>
       <c r="L110">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -5384,37 +5384,37 @@
         <v>122</v>
       </c>
       <c r="B111">
-        <v>101.6731892872617</v>
+        <v>0.0463385908239143</v>
       </c>
       <c r="C111">
-        <v>0.002968560271160925</v>
+        <v>0.004818969109346927</v>
       </c>
       <c r="D111">
-        <v>0.00989520090386975</v>
+        <v>0.01606323036448976</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G111">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H111">
-        <v>0.02663290500640869</v>
+        <v>0.0892830416560173</v>
       </c>
       <c r="I111">
-        <v>0.7430808544158936</v>
+        <v>0.7196542620658875</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L111">
-        <v>65000</v>
+        <v>25000</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -5425,37 +5425,37 @@
         <v>123</v>
       </c>
       <c r="B112">
-        <v>100.4210018419174</v>
+        <v>0.04431507027030501</v>
       </c>
       <c r="C112">
-        <v>0.01606736029470679</v>
+        <v>0.004608533641487611</v>
       </c>
       <c r="D112">
-        <v>0.02295337184958113</v>
+        <v>0.0153617788049587</v>
       </c>
       <c r="E112">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G112">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H112">
-        <v>0.1334650367498398</v>
+        <v>0.1746582984924316</v>
       </c>
       <c r="I112">
-        <v>0.6879216432571411</v>
+        <v>0.8795332908630371</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L112">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -5466,37 +5466,37 @@
         <v>124</v>
       </c>
       <c r="B113">
-        <v>98.30988713045643</v>
+        <v>0.04399001514494495</v>
       </c>
       <c r="C113">
-        <v>0.005620759105254648</v>
+        <v>0.004502554273885106</v>
       </c>
       <c r="D113">
-        <v>0.008029655864649498</v>
+        <v>0.01500851424628369</v>
       </c>
       <c r="E113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H113">
-        <v>0.0698191225528717</v>
+        <v>0.03497638553380966</v>
       </c>
       <c r="I113">
-        <v>0.7667102813720703</v>
+        <v>0.8582084178924561</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>5830</v>
+        <v>10000</v>
       </c>
       <c r="L113">
-        <v>29151</v>
+        <v>25000</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5507,16 +5507,16 @@
         <v>125</v>
       </c>
       <c r="B114">
-        <v>91.22270004835099</v>
+        <v>0.04395172907371547</v>
       </c>
       <c r="C114">
-        <v>0.005212725717048628</v>
+        <v>0.004925782302888959</v>
       </c>
       <c r="D114">
-        <v>0.01737575239016209</v>
+        <v>0.0164192743429632</v>
       </c>
       <c r="E114">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -5525,10 +5525,10 @@
         <v>0.25</v>
       </c>
       <c r="H114">
-        <v>0.08539697527885437</v>
+        <v>0.08093101531267166</v>
       </c>
       <c r="I114">
-        <v>0.8138813972473145</v>
+        <v>0.8115195035934448</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>5000</v>
       </c>
       <c r="L114">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5548,13 +5548,13 @@
         <v>126</v>
       </c>
       <c r="B115">
-        <v>85.71812879961487</v>
+        <v>0.04368893934980964</v>
       </c>
       <c r="C115">
-        <v>0.005714541919974325</v>
+        <v>0.003696057206493724</v>
       </c>
       <c r="D115">
-        <v>0.01904847306658108</v>
+        <v>0.01232019068831242</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -5566,19 +5566,19 @@
         <v>0.25</v>
       </c>
       <c r="H115">
-        <v>0.08709614723920822</v>
+        <v>0.06052729859948158</v>
       </c>
       <c r="I115">
-        <v>0.8748250603675842</v>
+        <v>0.814190685749054</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L115">
-        <v>25000</v>
+        <v>262000</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -5589,13 +5589,13 @@
         <v>127</v>
       </c>
       <c r="B116">
-        <v>80.06269535109273</v>
+        <v>0.04355931581651282</v>
       </c>
       <c r="C116">
-        <v>0.005337513023406182</v>
+        <v>0.004881803548958574</v>
       </c>
       <c r="D116">
-        <v>0.01779171007802061</v>
+        <v>0.01627267849652858</v>
       </c>
       <c r="E116">
         <v>-1</v>
@@ -5607,10 +5607,10 @@
         <v>0.25</v>
       </c>
       <c r="H116">
-        <v>0.08494194597005844</v>
+        <v>0.0774129182100296</v>
       </c>
       <c r="I116">
-        <v>0.8378291726112366</v>
+        <v>0.8408249616622925</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>5000</v>
       </c>
       <c r="L116">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5630,37 +5630,37 @@
         <v>128</v>
       </c>
       <c r="B117">
-        <v>78.79469979298936</v>
+        <v>0.04282659879789194</v>
       </c>
       <c r="C117">
-        <v>0.004502554273885106</v>
+        <v>0.004154297893625869</v>
       </c>
       <c r="D117">
-        <v>0.01500851424628369</v>
+        <v>0.005934711276608384</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G117">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H117">
-        <v>0.03497638553380966</v>
+        <v>0.07662791758775711</v>
       </c>
       <c r="I117">
-        <v>0.8582084178924561</v>
+        <v>0.7744842171669006</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <v>10000</v>
       </c>
       <c r="L117">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -5671,37 +5671,37 @@
         <v>129</v>
       </c>
       <c r="B118">
-        <v>76.9941610564322</v>
+        <v>0.04177588912558741</v>
       </c>
       <c r="C118">
-        <v>0.005132944070428813</v>
+        <v>0.004779578371390034</v>
       </c>
       <c r="D118">
-        <v>0.01710981356809604</v>
+        <v>0.01593192790463345</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G118">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H118">
-        <v>0.08236092329025269</v>
+        <v>0.1835826337337494</v>
       </c>
       <c r="I118">
-        <v>0.8309675455093384</v>
+        <v>0.8678341507911682</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L118">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -5712,37 +5712,37 @@
         <v>130</v>
       </c>
       <c r="B119">
-        <v>73.17814042240738</v>
+        <v>0.04147960239723997</v>
       </c>
       <c r="C119">
-        <v>0.004878542694827159</v>
+        <v>0.003770147531894352</v>
       </c>
       <c r="D119">
-        <v>0.0162618089827572</v>
+        <v>0.01256715843964784</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G119">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H119">
-        <v>0.03872211650013924</v>
+        <v>0.06597620248794556</v>
       </c>
       <c r="I119">
-        <v>0.8399235606193542</v>
+        <v>0.761920690536499</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L119">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -5753,37 +5753,37 @@
         <v>131</v>
       </c>
       <c r="B120">
-        <v>72.2845366402039</v>
+        <v>0.04031336018504005</v>
       </c>
       <c r="C120">
-        <v>0.004818969109346927</v>
+        <v>0.003238275084601301</v>
       </c>
       <c r="D120">
-        <v>0.01606323036448976</v>
+        <v>0.01079425028200434</v>
       </c>
       <c r="E120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H120">
-        <v>0.0892830416560173</v>
+        <v>0.1223275884985924</v>
       </c>
       <c r="I120">
-        <v>0.7196542620658875</v>
+        <v>0.8824052214622498</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L120">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -5794,37 +5794,37 @@
         <v>132</v>
       </c>
       <c r="B121">
-        <v>71.8675653313563</v>
+        <v>0.04028382925874976</v>
       </c>
       <c r="C121">
-        <v>0.001409167947673653</v>
+        <v>0.004514711421763315</v>
       </c>
       <c r="D121">
-        <v>0.004697226492245511</v>
+        <v>0.01504903807254439</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H121">
-        <v>0.05593880638480186</v>
+        <v>0.111206166446209</v>
       </c>
       <c r="I121">
-        <v>0.8397080302238464</v>
+        <v>0.9021704792976379</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>32000</v>
+        <v>5000</v>
       </c>
       <c r="L121">
-        <v>70000</v>
+        <v>10000</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -5835,37 +5835,37 @@
         <v>133</v>
       </c>
       <c r="B122">
-        <v>70.98844634061996</v>
+        <v>0.03823101132361027</v>
       </c>
       <c r="C122">
-        <v>0.007887605148957774</v>
+        <v>0.003975823591348648</v>
       </c>
       <c r="D122">
-        <v>0.01126800735565396</v>
+        <v>0.01325274530449549</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="H122">
-        <v>0.09893295168876648</v>
+        <v>0.03220782428979874</v>
       </c>
       <c r="I122">
-        <v>0.7593026161193848</v>
+        <v>0.8229519128799438</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L122">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -5876,37 +5876,37 @@
         <v>134</v>
       </c>
       <c r="B123">
-        <v>70.562079941183</v>
+        <v>0.03810736812047336</v>
       </c>
       <c r="C123">
-        <v>0.01085570460633585</v>
+        <v>0.004474064699554674</v>
       </c>
       <c r="D123">
-        <v>0.03618568202111949</v>
+        <v>0.01491354899851558</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G123">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H123">
-        <v>0.1668735891580582</v>
+        <v>0.1721729785203934</v>
       </c>
       <c r="I123">
-        <v>0.8673794865608215</v>
+        <v>0.8661956787109375</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L123">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -5917,28 +5917,28 @@
         <v>135</v>
       </c>
       <c r="B124">
-        <v>69.12800462231417</v>
+        <v>0.03797746115888333</v>
       </c>
       <c r="C124">
-        <v>0.004608533641487611</v>
+        <v>0.003715275308922656</v>
       </c>
       <c r="D124">
-        <v>0.0153617788049587</v>
+        <v>0.01238425102974219</v>
       </c>
       <c r="E124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G124">
         <v>0.1</v>
       </c>
       <c r="H124">
-        <v>0.1746582984924316</v>
+        <v>0.1340523809194565</v>
       </c>
       <c r="I124">
-        <v>0.8795332908630371</v>
+        <v>0.9238367080688477</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>5000</v>
       </c>
       <c r="L124">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -5958,37 +5958,37 @@
         <v>136</v>
       </c>
       <c r="B125">
-        <v>64.57068411116487</v>
+        <v>0.03467566091852975</v>
       </c>
       <c r="C125">
-        <v>0.002869808182718439</v>
+        <v>0.00367577526502803</v>
       </c>
       <c r="D125">
-        <v>0.009566027275728129</v>
+        <v>0.0122525842167601</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G125">
         <v>0.1</v>
       </c>
       <c r="H125">
-        <v>0.1106080338358879</v>
+        <v>0.1360228806734085</v>
       </c>
       <c r="I125">
-        <v>0.8648582696914673</v>
+        <v>0.9007737636566162</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
+        <v>5000</v>
+      </c>
+      <c r="L125">
         <v>20000</v>
-      </c>
-      <c r="L125">
-        <v>25000</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -5999,37 +5999,37 @@
         <v>137</v>
       </c>
       <c r="B126">
-        <v>59.63735387022972</v>
+        <v>0.03443675427805265</v>
       </c>
       <c r="C126">
-        <v>0.003975823591348648</v>
+        <v>0.002730574641162819</v>
       </c>
       <c r="D126">
-        <v>0.01325274530449549</v>
+        <v>0.009101915470542732</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G126">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H126">
-        <v>0.03220782428979874</v>
+        <v>0.05154945701360703</v>
       </c>
       <c r="I126">
-        <v>0.8229519128799438</v>
+        <v>0.7062666416168213</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="L126">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -6040,13 +6040,13 @@
         <v>138</v>
       </c>
       <c r="B127">
-        <v>59.23432453026023</v>
+        <v>0.03256361953241375</v>
       </c>
       <c r="C127">
-        <v>0.008775455485964478</v>
+        <v>0.003386444728358973</v>
       </c>
       <c r="D127">
-        <v>0.02925151828654826</v>
+        <v>0.01128814909452991</v>
       </c>
       <c r="E127">
         <v>-1</v>
@@ -6058,19 +6058,19 @@
         <v>0.25</v>
       </c>
       <c r="H127">
-        <v>0.1412145495414734</v>
+        <v>0.05839548632502556</v>
       </c>
       <c r="I127">
-        <v>0.8285695314407349</v>
+        <v>0.7732206583023071</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L127">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -6081,37 +6081,37 @@
         <v>139</v>
       </c>
       <c r="B128">
-        <v>50.79667092538459</v>
+        <v>0.03099613610284382</v>
       </c>
       <c r="C128">
-        <v>0.003386444728358973</v>
+        <v>0.002968560271160925</v>
       </c>
       <c r="D128">
-        <v>0.01128814909452991</v>
+        <v>0.00989520090386975</v>
       </c>
       <c r="E128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H128">
-        <v>0.05839548632502556</v>
+        <v>0.02663290500640869</v>
       </c>
       <c r="I128">
-        <v>0.7732206583023071</v>
+        <v>0.7430808544158936</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L128">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -6122,34 +6122,34 @@
         <v>140</v>
       </c>
       <c r="B129">
-        <v>49.87297511164697</v>
+        <v>0.03065186217311279</v>
       </c>
       <c r="C129">
-        <v>0.001955802945554783</v>
+        <v>0.0029103213594626</v>
       </c>
       <c r="D129">
-        <v>0.006519343151849278</v>
+        <v>0.009701071198208667</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G129">
         <v>0.1</v>
       </c>
       <c r="H129">
-        <v>0.07438693940639496</v>
+        <v>0.1068367660045624</v>
       </c>
       <c r="I129">
-        <v>0.876409649848938</v>
+        <v>0.9080274105072021</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="L129">
         <v>50000</v>
@@ -6163,28 +6163,28 @@
         <v>141</v>
       </c>
       <c r="B130">
-        <v>45.94719081285037</v>
+        <v>0.02944439848285013</v>
       </c>
       <c r="C130">
-        <v>0.00367577526502803</v>
+        <v>0.003062062186382439</v>
       </c>
       <c r="D130">
-        <v>0.0122525842167601</v>
+        <v>0.01020687395460813</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G130">
         <v>0.1</v>
       </c>
       <c r="H130">
-        <v>0.1360228806734085</v>
+        <v>0.1278477758169174</v>
       </c>
       <c r="I130">
-        <v>0.9007737636566162</v>
+        <v>0.7983614802360535</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>5000</v>
       </c>
       <c r="L130">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -6204,13 +6204,13 @@
         <v>142</v>
       </c>
       <c r="B131">
-        <v>45.93093279573659</v>
+        <v>0.02875925187942654</v>
       </c>
       <c r="C131">
-        <v>0.003062062186382439</v>
+        <v>0.002869808182718439</v>
       </c>
       <c r="D131">
-        <v>0.01020687395460813</v>
+        <v>0.009566027275728129</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -6222,16 +6222,16 @@
         <v>0.1</v>
       </c>
       <c r="H131">
-        <v>0.1278477758169174</v>
+        <v>0.1106080338358879</v>
       </c>
       <c r="I131">
-        <v>0.7983614802360535</v>
+        <v>0.8648582696914673</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L131">
         <v>25000</v>
@@ -6245,37 +6245,37 @@
         <v>143</v>
       </c>
       <c r="B132">
-        <v>45.13542408911827</v>
+        <v>0.02864310656329539</v>
       </c>
       <c r="C132">
-        <v>0.00820644074347605</v>
+        <v>0.002647286558483747</v>
       </c>
       <c r="D132">
-        <v>0.0273548024782535</v>
+        <v>0.008824288528279156</v>
       </c>
       <c r="E132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H132">
-        <v>0.1251510381698608</v>
+        <v>0.02354172430932522</v>
       </c>
       <c r="I132">
-        <v>0.8742972612380981</v>
+        <v>0.7496722340583801</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="L132">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -6286,37 +6286,37 @@
         <v>144</v>
       </c>
       <c r="B133">
-        <v>38.96903052036568</v>
+        <v>0.0253220279226585</v>
       </c>
       <c r="C133">
-        <v>0.002597935368024379</v>
+        <v>0.003102884001126238</v>
       </c>
       <c r="D133">
-        <v>0.008659784560081263</v>
+        <v>0.01034294667042079</v>
       </c>
       <c r="E133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H133">
-        <v>0.0421597845852375</v>
+        <v>0.09066278487443924</v>
       </c>
       <c r="I133">
-        <v>0.8216156363487244</v>
+        <v>0.7605433464050293</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
+        <v>2000</v>
+      </c>
+      <c r="L133">
         <v>5000</v>
-      </c>
-      <c r="L133">
-        <v>25000</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -6327,37 +6327,37 @@
         <v>145</v>
       </c>
       <c r="B134">
-        <v>37.57650255751417</v>
+        <v>0.02498141433867203</v>
       </c>
       <c r="C134">
-        <v>0.01073614358786119</v>
+        <v>0.002597935368024379</v>
       </c>
       <c r="D134">
-        <v>0.01533734798265884</v>
+        <v>0.008659784560081263</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G134">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H134">
-        <v>0.1182877272367477</v>
+        <v>0.0421597845852375</v>
       </c>
       <c r="I134">
-        <v>0.8644090890884399</v>
+        <v>0.8216156363487244</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L134">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -6368,37 +6368,37 @@
         <v>146</v>
       </c>
       <c r="B135">
-        <v>36.94336727166719</v>
+        <v>0.02473394713854937</v>
       </c>
       <c r="C135">
-        <v>0.004925782302888959</v>
+        <v>0.002100494471836898</v>
       </c>
       <c r="D135">
-        <v>0.0164192743429632</v>
+        <v>0.007001648239456326</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G135">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H135">
-        <v>0.08093101531267166</v>
+        <v>0.08085564523935318</v>
       </c>
       <c r="I135">
-        <v>0.8115195035934448</v>
+        <v>0.8659442663192749</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L135">
-        <v>10000</v>
+        <v>250000</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -6409,37 +6409,37 @@
         <v>147</v>
       </c>
       <c r="B136">
-        <v>36.61352661718931</v>
+        <v>0.02435796943657262</v>
       </c>
       <c r="C136">
-        <v>0.004881803548958574</v>
+        <v>0.001916916276587952</v>
       </c>
       <c r="D136">
-        <v>0.01627267849652858</v>
+        <v>0.006389720921959841</v>
       </c>
       <c r="E136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G136">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H136">
-        <v>0.0774129182100296</v>
+        <v>0.07870683819055557</v>
       </c>
       <c r="I136">
-        <v>0.8408249616622925</v>
+        <v>0.8118380904197693</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>5000</v>
+        <v>160000</v>
       </c>
       <c r="L136">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -6450,28 +6450,28 @@
         <v>148</v>
       </c>
       <c r="B137">
-        <v>33.86033566322487</v>
+        <v>0.02356719946757972</v>
       </c>
       <c r="C137">
-        <v>0.004514711421763315</v>
+        <v>0.002498228629944288</v>
       </c>
       <c r="D137">
-        <v>0.01504903807254439</v>
+        <v>0.008327428766480962</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G137">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H137">
-        <v>0.111206166446209</v>
+        <v>0.09421797096729279</v>
       </c>
       <c r="I137">
-        <v>0.9021704792976379</v>
+        <v>0.883847177028656</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>5000</v>
       </c>
       <c r="L137">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -6491,37 +6491,37 @@
         <v>149</v>
       </c>
       <c r="B138">
-        <v>31.22785787430361</v>
+        <v>0.02328857050378886</v>
       </c>
       <c r="C138">
-        <v>0.002498228629944288</v>
+        <v>0.002641192326250987</v>
       </c>
       <c r="D138">
-        <v>0.008327428766480962</v>
+        <v>0.008803974420836625</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F138">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G138">
         <v>0.1</v>
       </c>
       <c r="H138">
-        <v>0.09421797096729279</v>
+        <v>0.1077545136213303</v>
       </c>
       <c r="I138">
-        <v>0.883847177028656</v>
+        <v>0.817039966583252</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L138">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -6532,34 +6532,34 @@
         <v>150</v>
       </c>
       <c r="B139">
-        <v>31.06742648190509</v>
+        <v>0.01984450167490365</v>
       </c>
       <c r="C139">
-        <v>0.0008876407566258598</v>
+        <v>0.001955802945554783</v>
       </c>
       <c r="D139">
-        <v>0.001268058223751228</v>
+        <v>0.006519343151849278</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G139">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H139">
-        <v>0.006608751602470875</v>
+        <v>0.07438693940639496</v>
       </c>
       <c r="I139">
-        <v>0.7675024271011353</v>
+        <v>0.876409649848938</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="L139">
         <v>50000</v>
@@ -6573,37 +6573,37 @@
         <v>151</v>
       </c>
       <c r="B140">
-        <v>29.87236482118771</v>
+        <v>0.01947897830577082</v>
       </c>
       <c r="C140">
-        <v>0.004779578371390034</v>
+        <v>0.002432834532198571</v>
       </c>
       <c r="D140">
-        <v>0.01593192790463345</v>
+        <v>0.008109448440661905</v>
       </c>
       <c r="E140">
         <v>-1</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G140">
         <v>0.1</v>
       </c>
       <c r="H140">
-        <v>0.1835826337337494</v>
+        <v>0.1049806103110313</v>
       </c>
       <c r="I140">
-        <v>0.8678341507911682</v>
+        <v>0.7724710702896118</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L140">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -6614,13 +6614,13 @@
         <v>152</v>
       </c>
       <c r="B141">
-        <v>22.37032349777337</v>
+        <v>0.01527481761746509</v>
       </c>
       <c r="C141">
-        <v>0.004474064699554674</v>
+        <v>0.001409167947673653</v>
       </c>
       <c r="D141">
-        <v>0.01491354899851558</v>
+        <v>0.004697226492245511</v>
       </c>
       <c r="E141">
         <v>3</v>
@@ -6632,19 +6632,19 @@
         <v>0.1</v>
       </c>
       <c r="H141">
-        <v>0.1721729785203934</v>
+        <v>0.05593880638480186</v>
       </c>
       <c r="I141">
-        <v>0.8661956787109375</v>
+        <v>0.8397080302238464</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>5000</v>
+        <v>32000</v>
       </c>
       <c r="L141">
-        <v>5000</v>
+        <v>70000</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -6655,28 +6655,28 @@
         <v>153</v>
       </c>
       <c r="B142">
-        <v>18.57936016308279</v>
+        <v>0.01317863129134889</v>
       </c>
       <c r="C142">
-        <v>0.0006756130968393742</v>
+        <v>0.001547261119232033</v>
       </c>
       <c r="D142">
-        <v>0.0009651615669133917</v>
+        <v>0.002210373027474333</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G142">
         <v>0.1</v>
       </c>
       <c r="H142">
-        <v>0.01422006916254759</v>
+        <v>0.03050321526825428</v>
       </c>
       <c r="I142">
-        <v>0.6787319779396057</v>
+        <v>0.7246360778808594</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>5000</v>
       </c>
       <c r="L142">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -6696,37 +6696,37 @@
         <v>154</v>
       </c>
       <c r="B143">
-        <v>17.82804820219416</v>
+        <v>0.01280939858031015</v>
       </c>
       <c r="C143">
-        <v>0.002641192326250987</v>
+        <v>0.00109923813849305</v>
       </c>
       <c r="D143">
-        <v>0.008803974420836625</v>
+        <v>0.001570340197847214</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H143">
-        <v>0.1077545136213303</v>
+        <v>0.004330783616751432</v>
       </c>
       <c r="I143">
-        <v>0.817039966583252</v>
+        <v>0.7251991033554077</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
-        <v>6500</v>
+        <v>30065</v>
       </c>
       <c r="L143">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -6737,37 +6737,37 @@
         <v>155</v>
       </c>
       <c r="B144">
-        <v>15.17638820496707</v>
+        <v>0.01052152102531829</v>
       </c>
       <c r="C144">
-        <v>0.001011759213664472</v>
+        <v>0.0008463789198471127</v>
       </c>
       <c r="D144">
-        <v>0.003372530712214905</v>
+        <v>0.002821263066157043</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G144">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H144">
-        <v>0.0393061675131321</v>
+        <v>0.01460669934749603</v>
       </c>
       <c r="I144">
-        <v>0.8580156564712524</v>
+        <v>0.7725942730903625</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L144">
-        <v>25000</v>
+        <v>500000</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -6778,37 +6778,37 @@
         <v>156</v>
       </c>
       <c r="B145">
-        <v>10.86009400394183</v>
+        <v>0.009728947239646646</v>
       </c>
       <c r="C145">
-        <v>0.003102884001126238</v>
+        <v>0.001011759213664472</v>
       </c>
       <c r="D145">
-        <v>0.01034294667042079</v>
+        <v>0.003372530712214905</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G145">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H145">
-        <v>0.09066278487443924</v>
+        <v>0.0393061675131321</v>
       </c>
       <c r="I145">
-        <v>0.7605433464050293</v>
+        <v>0.8580156564712524</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L145">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -6819,13 +6819,13 @@
         <v>157</v>
       </c>
       <c r="B146">
-        <v>10.07081223867484</v>
+        <v>0.009287502326592909</v>
       </c>
       <c r="C146">
-        <v>0.0006713874825783227</v>
+        <v>0.0008876407566258598</v>
       </c>
       <c r="D146">
-        <v>0.002237958275261076</v>
+        <v>0.001268058223751228</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -6837,19 +6837,19 @@
         <v>0.25</v>
       </c>
       <c r="H146">
-        <v>0.01157628186047077</v>
+        <v>0.006608751602470875</v>
       </c>
       <c r="I146">
-        <v>0.7732908725738525</v>
+        <v>0.7675024271011353</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L146">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -6860,37 +6860,37 @@
         <v>158</v>
       </c>
       <c r="B147">
-        <v>8.968174223825422</v>
+        <v>0.008960052130430366</v>
       </c>
       <c r="C147">
-        <v>0.0007145955556833005</v>
+        <v>0.001040332016157852</v>
       </c>
       <c r="D147">
-        <v>0.002381985185611002</v>
+        <v>0.003467773387192841</v>
       </c>
       <c r="E147">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G147">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H147">
-        <v>0.03035648725926876</v>
+        <v>0.0192970484495163</v>
       </c>
       <c r="I147">
-        <v>0.784670889377594</v>
+        <v>0.7188194394111633</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="L147">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -6901,37 +6901,37 @@
         <v>159</v>
       </c>
       <c r="B148">
-        <v>7.736305596160165</v>
+        <v>0.007989647570441596</v>
       </c>
       <c r="C148">
-        <v>0.001547261119232033</v>
+        <v>0.0006193898646342094</v>
       </c>
       <c r="D148">
-        <v>0.002210373027474333</v>
+        <v>0.002064632882114031</v>
       </c>
       <c r="E148">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G148">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H148">
-        <v>0.03050321526825428</v>
+        <v>0.01033424399793148</v>
       </c>
       <c r="I148">
-        <v>0.7246360778808594</v>
+        <v>0.7991423010826111</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="L148">
-        <v>5000</v>
+        <v>400000</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -6942,16 +6942,16 @@
         <v>160</v>
       </c>
       <c r="B149">
-        <v>7.298503596595713</v>
+        <v>0.006906101973662475</v>
       </c>
       <c r="C149">
-        <v>0.002432834532198571</v>
+        <v>0.0006756130968393742</v>
       </c>
       <c r="D149">
-        <v>0.008109448440661905</v>
+        <v>0.0009651615669133917</v>
       </c>
       <c r="E149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F149">
         <v>3</v>
@@ -6960,19 +6960,19 @@
         <v>0.1</v>
       </c>
       <c r="H149">
-        <v>0.1049806103110313</v>
+        <v>0.01422006916254759</v>
       </c>
       <c r="I149">
-        <v>0.7724710702896118</v>
+        <v>0.6787319779396057</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L149">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -6983,37 +6983,37 @@
         <v>161</v>
       </c>
       <c r="B150">
-        <v>7.211931583360137</v>
+        <v>0.006744035304467099</v>
       </c>
       <c r="C150">
-        <v>0.01196008554454417</v>
+        <v>0.0007145955556833005</v>
       </c>
       <c r="D150">
-        <v>0.01708583649220596</v>
+        <v>0.002381985185611002</v>
       </c>
       <c r="E150">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G150">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H150">
-        <v>0.05326394736766815</v>
+        <v>0.03035648725926876</v>
       </c>
       <c r="I150">
-        <v>0.641553521156311</v>
+        <v>0.784670889377594</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="L150">
-        <v>1026</v>
+        <v>25000</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -7024,16 +7024,16 @@
         <v>162</v>
       </c>
       <c r="B151">
-        <v>5.721826088868187</v>
+        <v>0.006455976191910269</v>
       </c>
       <c r="C151">
-        <v>0.001040332016157852</v>
+        <v>0.0006713874825783227</v>
       </c>
       <c r="D151">
-        <v>0.003467773387192841</v>
+        <v>0.002237958275261076</v>
       </c>
       <c r="E151">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F151">
         <v>4</v>
@@ -7042,19 +7042,19 @@
         <v>0.25</v>
       </c>
       <c r="H151">
-        <v>0.0192970484495163</v>
+        <v>0.01157628186047077</v>
       </c>
       <c r="I151">
-        <v>0.7188194394111633</v>
+        <v>0.7732908725738525</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L151">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M151">
         <v>0</v>
